--- a/Dashboards-test/MERC.xlsx
+++ b/Dashboards-test/MERC.xlsx
@@ -18,15 +18,15 @@
   </x:sheets>
   <x:definedNames>
     <x:definedName name="DatesXP_tpl" localSheetId="0">'XP Per Day'!$E$1:$E$1</x:definedName>
-    <x:definedName name="PlayersXP_tpl" localSheetId="0">'XP Per Day'!$A$2:$E$77</x:definedName>
+    <x:definedName name="PlayersXP_tpl" localSheetId="0">'XP Per Day'!$A$2:$E$78</x:definedName>
     <x:definedName name="PlayersXP_XP_tpl" localSheetId="0">'XP Per Day'!$E$2:$E$2</x:definedName>
     <x:definedName name="DatesKDR_tpl" localSheetId="1">'KDR Per Day'!$D$1:$D$1</x:definedName>
-    <x:definedName name="PlayersKDR_tpl" localSheetId="1">'KDR Per Day'!$A$2:$D$77</x:definedName>
+    <x:definedName name="PlayersKDR_tpl" localSheetId="1">'KDR Per Day'!$A$2:$D$78</x:definedName>
     <x:definedName name="PlayersKDR_KDR_tpl" localSheetId="1">'KDR Per Day'!$D$2:$D$2</x:definedName>
     <x:definedName name="DatesKDR">'KDR Per Day'!$D$1:$Q$1</x:definedName>
     <x:definedName name="DatesXP">'XP Per Day'!$E$1:$R$1</x:definedName>
-    <x:definedName name="PlayersKDR">'KDR Per Day'!$A$2:$Q$77</x:definedName>
-    <x:definedName name="PlayersXP">'XP Per Day'!$A$2:$P$77</x:definedName>
+    <x:definedName name="PlayersKDR">'KDR Per Day'!$A$2:$Q$78</x:definedName>
+    <x:definedName name="PlayersXP">'XP Per Day'!$A$2:$R$78</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="191029"/>
   <x:extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="302">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="330">
   <x:si>
     <x:t>Player</x:t>
   </x:si>
@@ -58,66 +58,72 @@
     <x:t>Total XP</x:t>
   </x:si>
   <x:si>
-    <x:t>TwinX22</x:t>
-  </x:si>
-  <x:si>
     <x:t>Carter23 bruh</x:t>
   </x:si>
   <x:si>
+    <x:t>trm5120</x:t>
+  </x:si>
+  <x:si>
     <x:t>ProVibes</x:t>
   </x:si>
   <x:si>
-    <x:t>trm5120</x:t>
+    <x:t>JaSn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Azarzar144</x:t>
   </x:si>
   <x:si>
     <x:t>Eint</x:t>
   </x:si>
   <x:si>
-    <x:t>Azarzar144</x:t>
+    <x:t>The Guest noob</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Use Code New</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DARKCRUSHER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>edamame</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ling Ling</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BLASTER</x:t>
   </x:si>
   <x:si>
     <x:t>Jospejjki94</x:t>
   </x:si>
   <x:si>
-    <x:t>JaSn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BLASTER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Use Code New</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The Guest noob</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DARKCRUSHER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>edamame</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ling Ling</x:t>
-  </x:si>
-  <x:si>
     <x:t>Izzz</x:t>
   </x:si>
   <x:si>
+    <x:t>The bes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AlphaZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JaSns Alt</x:t>
+  </x:si>
+  <x:si>
     <x:t>Catkid</x:t>
   </x:si>
   <x:si>
-    <x:t>AlphaZ</x:t>
+    <x:t>Falker_Merc</x:t>
   </x:si>
   <x:si>
     <x:t>Thecdark</x:t>
   </x:si>
   <x:si>
-    <x:t>Falker_Merc</x:t>
-  </x:si>
-  <x:si>
     <x:t>kill you all</x:t>
   </x:si>
   <x:si>
+    <x:t>Picklebro</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230</x:t>
   </x:si>
   <x:si>
@@ -127,7 +133,13 @@
     <x:t>CameronKill</x:t>
   </x:si>
   <x:si>
-    <x:t>Picklebro</x:t>
+    <x:t>foowy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BaldHorse_888</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HAWK-EYE</x:t>
   </x:si>
   <x:si>
     <x:t>HelloKillerz</x:t>
@@ -139,9 +151,6 @@
     <x:t>chr5h</x:t>
   </x:si>
   <x:si>
-    <x:t>foowy</x:t>
-  </x:si>
-  <x:si>
     <x:t>dedood</x:t>
   </x:si>
   <x:si>
@@ -277,12 +286,6 @@
     <x:t>Cheryl</x:t>
   </x:si>
   <x:si>
-    <x:t>JaSns Alt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BaldHorse_888</x:t>
-  </x:si>
-  <x:si>
     <x:t>Average KDR</x:t>
   </x:si>
   <x:si>
@@ -340,7 +343,7 @@
     <x:t>6,4 (77/12)</x:t>
   </x:si>
   <x:si>
-    <x:t>5,2 (3045/589)</x:t>
+    <x:t>5,2 (3204/613)</x:t>
   </x:si>
   <x:si>
     <x:t>3,3 (79/24)</x:t>
@@ -379,43 +382,7 @@
     <x:t>5,5 (22/4)</x:t>
   </x:si>
   <x:si>
-    <x:t>4,4 (8682/1990)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,8 (162/43)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,9 (530/180)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6,1 (1176/193)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,4 (670/151)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,5 (795/176)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6,7 (2089/313)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,9 (811/209)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,5 (32/13)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,8 (207/54)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,2 (1200/380)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,8 (929/246)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,5 (81/32)</x:t>
+    <x:t>6,6 (159/24)</x:t>
   </x:si>
   <x:si>
     <x:t>3,6 (1687/463)</x:t>
@@ -445,6 +412,9 @@
     <x:t>3,2 (39/12)</x:t>
   </x:si>
   <x:si>
+    <x:t>3,1 (376/120)</x:t>
+  </x:si>
+  <x:si>
     <x:t>3,0 (21/7)</x:t>
   </x:si>
   <x:si>
@@ -478,7 +448,7 @@
     <x:t>2,3 (32/14)</x:t>
   </x:si>
   <x:si>
-    <x:t>2,7 (2851/1040)</x:t>
+    <x:t>2,8 (3047/1094)</x:t>
   </x:si>
   <x:si>
     <x:t>3,1 (148/48)</x:t>
@@ -505,6 +475,9 @@
     <x:t>5,3 (53/10)</x:t>
   </x:si>
   <x:si>
+    <x:t>3,6 (196/54)</x:t>
+  </x:si>
+  <x:si>
     <x:t>2,6 (364/140)</x:t>
   </x:si>
   <x:si>
@@ -514,7 +487,16 @@
     <x:t>2,5 (273/108)</x:t>
   </x:si>
   <x:si>
-    <x:t>2,4 (3960/1660)</x:t>
+    <x:t>2,4 (225/95)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,3 (43/34)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,0 (182/61)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,4 (4753/2010)</x:t>
   </x:si>
   <x:si>
     <x:t>1,6 (90/58)</x:t>
@@ -544,13 +526,10 @@
     <x:t>2,8 (299/107)</x:t>
   </x:si>
   <x:si>
-    <x:t>2,4 (225/95)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,3 (43/34)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,0 (182/61)</x:t>
+    <x:t>2,1 (616/292)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,1 (177/58)</x:t>
   </x:si>
   <x:si>
     <x:t>2,4 (549/233)</x:t>
@@ -568,6 +547,45 @@
     <x:t>2,2 (107/48)</x:t>
   </x:si>
   <x:si>
+    <x:t>2,2 (1542/700)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,1 (43/14)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,1 (114/54)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,7 (30/11)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,8 (235/130)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,8 (69/25)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,1 (39/19)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,5 (143/95)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,6 (167/46)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,2 (216/97)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,8 (22/8)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,4 (215/89)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,4 (24/17)</x:t>
+  </x:si>
+  <x:si>
     <x:t>2,2 (2489/1134)</x:t>
   </x:si>
   <x:si>
@@ -595,46 +613,7 @@
     <x:t>2,5 (312/123)</x:t>
   </x:si>
   <x:si>
-    <x:t>2,2 (1317/605)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,1 (43/14)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,1 (114/54)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,7 (30/11)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,8 (235/130)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,8 (69/25)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,1 (39/19)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,5 (143/95)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,6 (167/46)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,2 (216/97)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,8 (22/8)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,4 (215/89)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,4 (24/17)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,0 (2375/1206)</x:t>
+    <x:t>2,0 (2569/1305)</x:t>
   </x:si>
   <x:si>
     <x:t>1,6 (220/135)</x:t>
@@ -664,6 +643,12 @@
     <x:t>1,8 (274/153)</x:t>
   </x:si>
   <x:si>
+    <x:t>1,9 (157/83)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,3 (37/16)</x:t>
+  </x:si>
+  <x:si>
     <x:t>2,0 (2479/1260)</x:t>
   </x:si>
   <x:si>
@@ -694,7 +679,136 @@
     <x:t>2,3 (177/76)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,9 (80/42)</x:t>
+    <x:t>1,9 (4257/2185)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,4 (263/185)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,5 (296/117)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,1 (449/219)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,7 (112/66)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,7 (286/165)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,9 (95/49)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,2 (273/125)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,6 (101/64)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,3 (53/40)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,7 (677/394)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,0 (459/227)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,2 (1175/527)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,6 (18/7)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,9 (81/43)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,9 (1613/869)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,0 (144/73)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,0 (354/177)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,9 (70/18)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,8 (78/43)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,3 (151/114)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,4 (7/5)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,4 (28/20)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,3 (74/59)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,0 (262/132)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,0 (445/228)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,7 (125/72)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,7 (99/58)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,8 (24/13)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,0 (2/1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,7 (2710/1577)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,2 (286/235)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,7 (80/30)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,2 (525/235)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,2 (33/28)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,0 (174/87)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,1 (160/149)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,9 (131/68)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,8 (246/133)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,0 (197/100)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,4 (204/141)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,9 (367/190)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,6 (252/161)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,6 (145/90)</x:t>
   </x:si>
   <x:si>
     <x:t>1,8 (57/31)</x:t>
@@ -703,124 +817,10 @@
     <x:t>2,1 (23/11)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,9 (81/43)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,9 (3064/1651)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,4 (263/185)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,5 (296/117)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,1 (449/219)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,7 (112/66)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,7 (286/165)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,9 (95/49)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,2 (273/125)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,6 (101/64)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,3 (53/40)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,7 (677/394)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,0 (459/227)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,8 (1168/641)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,0 (144/73)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,0 (354/177)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,9 (70/18)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,8 (78/43)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,3 (151/114)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,4 (7/5)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,4 (28/20)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,3 (74/59)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,0 (262/132)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,7 (125/72)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,7 (99/58)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,8 (24/13)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,0 (2/1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,7 (2458/1416)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,2 (286/235)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,7 (80/30)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,2 (525/235)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,2 (33/28)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,0 (174/87)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,1 (160/149)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,9 (131/68)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,8 (246/133)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,0 (197/100)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,4 (204/141)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,9 (367/190)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,7 (729/434)</x:t>
+    <x:t>1,4 (65/48)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,6 (1405/879)</x:t>
   </x:si>
   <x:si>
     <x:t>1,0 (4/4)</x:t>
@@ -835,6 +835,12 @@
     <x:t>1,7 (476/282)</x:t>
   </x:si>
   <x:si>
+    <x:t>1,8 (432/242)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,2 (244/203)</x:t>
+  </x:si>
+  <x:si>
     <x:t>1,6 (2846/1785)</x:t>
   </x:si>
   <x:si>
@@ -871,10 +877,31 @@
     <x:t>1,9 (444/234)</x:t>
   </x:si>
   <x:si>
+    <x:t>1,6 (321/204)</x:t>
+  </x:si>
+  <x:si>
     <x:t>1,6 (39/25)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,3 (327/258)</x:t>
+    <x:t>1,6 (45/28)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,6 (237/151)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,4 (343/242)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,8 (123/69)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,3 (220/173)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,4 (335/238)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,2 (607/487)</x:t>
   </x:si>
   <x:si>
     <x:t>1,3 (196/151)</x:t>
@@ -883,7 +910,13 @@
     <x:t>1,2 (131/107)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,0 (2235/2183)</x:t>
+    <x:t>1,1 (204/183)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,7 (76/46)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,1 (2601/2457)</x:t>
   </x:si>
   <x:si>
     <x:t>0,8 (223/266)</x:t>
@@ -922,7 +955,13 @@
     <x:t>1,3 (347/275)</x:t>
   </x:si>
   <x:si>
-    <x:t>0,8 (238/303)</x:t>
+    <x:t>1,3 (289/224)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,5 (77/50)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,0 (449/470)</x:t>
   </x:si>
   <x:si>
     <x:t>0,8 (124/147)</x:t>
@@ -931,7 +970,49 @@
     <x:t>0,7 (114/156)</x:t>
   </x:si>
   <x:si>
-    <x:t>0,6 (1719/2993)</x:t>
+    <x:t>0,9 (109/118)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,1 (102/49)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,9 (2708/3181)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,6 (51/90)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,8 (203/243)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,7 (236/337)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,9 (380/441)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,1 (116/110)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,0 (204/203)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,7 (254/346)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,7 (33/45)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,9 (830/874)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,8 (301/383)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,9 (100/109)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,6 (1769/3052)</x:t>
   </x:si>
   <x:si>
     <x:t>0,7 (10/14)</x:t>
@@ -953,6 +1034,9 @@
   </x:si>
   <x:si>
     <x:t>0,6 (61/98)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,7 (38/52)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1432,94 +1516,102 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C2" s="15" t="n">
-        <x:v>26559.5056857639</x:v>
+        <x:v>15586.5140059523</x:v>
       </x:c>
       <x:c r="D2" s="15" t="n">
-        <x:v>1041887.22872917</x:v>
+        <x:v>982488.916083329</x:v>
       </x:c>
       <x:c r="E2" s="16" t="n">
-        <x:v>6974.46906249982</x:v>
+        <x:v>10162.146875</x:v>
       </x:c>
       <x:c r="F2" s="16" t="n">
-        <x:v>19003.45175</x:v>
+        <x:v>19469.7271666666</x:v>
       </x:c>
       <x:c r="G2" s="16" t="n">
-        <x:v>50425.5493958335</x:v>
-      </x:c>
-      <x:c r="H2" s="16" t="n">
-        <x:v>25521.1086666669</x:v>
-      </x:c>
-      <x:c r="I2" s="16" t="n">
-        <x:v>29366.4923958333</x:v>
-      </x:c>
-      <x:c r="J2" s="16" t="n">
-        <x:v>79981.336958334</x:v>
-      </x:c>
+        <x:v>1768.739375</x:v>
+      </x:c>
+      <x:c r="H2" s="16" t="s"/>
+      <x:c r="I2" s="16" t="s"/>
+      <x:c r="J2" s="16" t="s"/>
       <x:c r="K2" s="16" t="n">
-        <x:v>24321.9551666667</x:v>
+        <x:v>14996.3249166667</x:v>
       </x:c>
       <x:c r="L2" s="16" t="n">
-        <x:v>903.922291666619</x:v>
+        <x:v>20158.0505833332</x:v>
       </x:c>
       <x:c r="M2" s="16" t="n">
-        <x:v>6274.20054166706</x:v>
+        <x:v>33826.1905208331</x:v>
       </x:c>
       <x:c r="N2" s="16" t="n">
-        <x:v>41865.603291666</x:v>
-      </x:c>
-      <x:c r="O2" s="16" t="n">
-        <x:v>32231.2588333329</x:v>
-      </x:c>
-      <x:c r="P2" s="16" t="n">
-        <x:v>1844.71987499972</x:v>
-      </x:c>
+        <x:v>8724.41860416648</x:v>
+      </x:c>
+      <x:c r="O2" s="16" t="s"/>
+      <x:c r="P2" s="16" t="s"/>
+      <x:c r="Q2" s="16" t="s"/>
+      <x:c r="R2" s="16" t="s"/>
     </x:row>
     <x:row r="3" spans="1:146" x14ac:dyDescent="0.25">
       <x:c r="B3" s="14" t="s">
         <x:v>4</x:v>
       </x:c>
       <x:c r="C3" s="15" t="n">
-        <x:v>15586.5140059523</x:v>
+        <x:v>15158.2030699405</x:v>
       </x:c>
       <x:c r="D3" s="15" t="n">
-        <x:v>982488.916083329</x:v>
+        <x:v>1238490.35745833</x:v>
       </x:c>
       <x:c r="E3" s="16" t="n">
-        <x:v>10162.146875</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F3" s="16" t="n">
-        <x:v>19469.7271666666</x:v>
+        <x:v>11442.4248125</x:v>
       </x:c>
       <x:c r="G3" s="16" t="n">
-        <x:v>1768.739375</x:v>
-      </x:c>
-      <x:c r="H3" s="16" t="s"/>
-      <x:c r="I3" s="16" t="s"/>
-      <x:c r="J3" s="16" t="s"/>
+        <x:v>20749.8455208335</x:v>
+      </x:c>
+      <x:c r="H3" s="16" t="n">
+        <x:v>20915.6951250001</x:v>
+      </x:c>
+      <x:c r="I3" s="16" t="n">
+        <x:v>4956.52152083348</x:v>
+      </x:c>
+      <x:c r="J3" s="16" t="n">
+        <x:v>12452.8194999998</x:v>
+      </x:c>
       <x:c r="K3" s="16" t="n">
-        <x:v>14996.3249166667</x:v>
+        <x:v>3948.36716666631</x:v>
       </x:c>
       <x:c r="L3" s="16" t="n">
-        <x:v>20158.0505833332</x:v>
+        <x:v>12100.1937083332</x:v>
       </x:c>
       <x:c r="M3" s="16" t="n">
-        <x:v>33826.1905208331</x:v>
+        <x:v>5571.79993749969</x:v>
       </x:c>
       <x:c r="N3" s="16" t="n">
-        <x:v>8724.41860416648</x:v>
-      </x:c>
-      <x:c r="O3" s="16" t="s"/>
-      <x:c r="P3" s="16" t="s"/>
+        <x:v>2378.8151666671</x:v>
+      </x:c>
+      <x:c r="O3" s="16" t="n">
+        <x:v>37090.6385624995</x:v>
+      </x:c>
+      <x:c r="P3" s="16" t="n">
+        <x:v>23792.7128125012</x:v>
+      </x:c>
+      <x:c r="Q3" s="16" t="n">
+        <x:v>56039.5663958336</x:v>
+      </x:c>
+      <x:c r="R3" s="16" t="n">
+        <x:v>775.442749999929</x:v>
+      </x:c>
     </x:row>
     <x:row r="4" spans="1:146">
       <x:c r="B4" s="14" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="C4" s="15" t="n">
-        <x:v>15054.7231284722</x:v>
+        <x:v>14816.8241130952</x:v>
       </x:c>
       <x:c r="D4" s="15" t="n">
-        <x:v>1882979.65122916</x:v>
+        <x:v>1909758.51127083</x:v>
       </x:c>
       <x:c r="E4" s="16" t="n">
         <x:v>2566.54358333349</x:v>
@@ -1556,6 +1648,12 @@
       </x:c>
       <x:c r="P4" s="16" t="n">
         <x:v>11096.7607083328</x:v>
+      </x:c>
+      <x:c r="Q4" s="16" t="n">
+        <x:v>21432.2629374999</x:v>
+      </x:c>
+      <x:c r="R4" s="16" t="n">
+        <x:v>5346.59710416663</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:146">
@@ -1563,93 +1661,99 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C5" s="15" t="n">
-        <x:v>12949.9861527778</x:v>
+        <x:v>10608.8045340909</x:v>
       </x:c>
       <x:c r="D5" s="15" t="n">
-        <x:v>1181675.3483125</x:v>
+        <x:v>1492014.21560417</x:v>
       </x:c>
       <x:c r="E5" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>2434.74733333359</x:v>
       </x:c>
       <x:c r="F5" s="16" t="n">
-        <x:v>11442.4248125</x:v>
+        <x:v>21384.5733541665</x:v>
       </x:c>
       <x:c r="G5" s="16" t="n">
-        <x:v>20749.8455208335</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H5" s="16" t="n">
-        <x:v>20915.6951250001</x:v>
+        <x:v>25683.1523333339</x:v>
       </x:c>
       <x:c r="I5" s="16" t="n">
-        <x:v>4956.52152083348</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J5" s="16" t="n">
-        <x:v>12452.8194999998</x:v>
+        <x:v>20737.125</x:v>
       </x:c>
       <x:c r="K5" s="16" t="n">
-        <x:v>3948.36716666631</x:v>
+        <x:v>15961.6405416671</x:v>
       </x:c>
       <x:c r="L5" s="16" t="n">
-        <x:v>12100.1937083332</x:v>
+        <x:v>2467.41295833304</x:v>
       </x:c>
       <x:c r="M5" s="16" t="n">
-        <x:v>5571.79993749969</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N5" s="16" t="n">
-        <x:v>2378.8151666671</x:v>
+        <x:v>13725.47425</x:v>
       </x:c>
       <x:c r="O5" s="16" t="n">
-        <x:v>37090.6385624995</x:v>
-      </x:c>
-      <x:c r="P5" s="16" t="n">
-        <x:v>23792.7128125012</x:v>
-      </x:c>
+        <x:v>14302.7241041663</x:v>
+      </x:c>
+      <x:c r="P5" s="16" t="s"/>
+      <x:c r="Q5" s="16" t="s"/>
+      <x:c r="R5" s="16" t="s"/>
     </x:row>
     <x:row r="6" spans="1:146">
       <x:c r="B6" s="14" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="C6" s="15" t="n">
-        <x:v>11510.9354427084</x:v>
+        <x:v>10516.8482678571</x:v>
       </x:c>
       <x:c r="D6" s="15" t="n">
-        <x:v>697092.353062502</x:v>
+        <x:v>406034.635479163</x:v>
       </x:c>
       <x:c r="E6" s="16" t="n">
-        <x:v>3819.66779166681</x:v>
+        <x:v>3191.79958333328</x:v>
       </x:c>
       <x:c r="F6" s="16" t="n">
-        <x:v>10154.1170208333</x:v>
+        <x:v>19924.8747499998</x:v>
       </x:c>
       <x:c r="G6" s="16" t="n">
-        <x:v>43.8351666666567</x:v>
+        <x:v>3802.72249999997</x:v>
       </x:c>
       <x:c r="H6" s="16" t="n">
-        <x:v>36172.4654999999</x:v>
+        <x:v>35624.0381249996</x:v>
       </x:c>
       <x:c r="I6" s="16" t="n">
-        <x:v>1044.2248333334</x:v>
+        <x:v>1627.34175000002</x:v>
       </x:c>
       <x:c r="J6" s="16" t="n">
-        <x:v>8946.27208333311</x:v>
+        <x:v>8205.23102083313</x:v>
       </x:c>
       <x:c r="K6" s="16" t="n">
-        <x:v>24016.9378750003</x:v>
+        <x:v>6232.25785416656</x:v>
       </x:c>
       <x:c r="L6" s="16" t="n">
-        <x:v>18686.2038958332</x:v>
+        <x:v>7122.29718750005</x:v>
       </x:c>
       <x:c r="M6" s="16" t="n">
-        <x:v>13387.3018958333</x:v>
+        <x:v>12079.9941875</x:v>
       </x:c>
       <x:c r="N6" s="16" t="n">
-        <x:v>16364.5521666668</x:v>
+        <x:v>7242.08258333337</x:v>
       </x:c>
       <x:c r="O6" s="16" t="n">
-        <x:v>4656.47145833343</x:v>
+        <x:v>8750.17291666672</x:v>
       </x:c>
       <x:c r="P6" s="16" t="n">
-        <x:v>839.175625000033</x:v>
+        <x:v>18213.6845833333</x:v>
+      </x:c>
+      <x:c r="Q6" s="16" t="n">
+        <x:v>15219.3787083334</x:v>
+      </x:c>
+      <x:c r="R6" s="16" t="n">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:146">
@@ -1657,46 +1761,52 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C7" s="15" t="n">
-        <x:v>11001.3747534721</x:v>
+        <x:v>10222.163264881</x:v>
       </x:c>
       <x:c r="D7" s="15" t="n">
-        <x:v>390815.25677083</x:v>
+        <x:v>702071.413458335</x:v>
       </x:c>
       <x:c r="E7" s="16" t="n">
-        <x:v>3191.79958333328</x:v>
+        <x:v>3819.66779166681</x:v>
       </x:c>
       <x:c r="F7" s="16" t="n">
-        <x:v>19924.8747499998</x:v>
+        <x:v>10154.1170208333</x:v>
       </x:c>
       <x:c r="G7" s="16" t="n">
-        <x:v>3802.72249999997</x:v>
+        <x:v>43.8351666666567</x:v>
       </x:c>
       <x:c r="H7" s="16" t="n">
-        <x:v>35624.0381249996</x:v>
+        <x:v>36172.4654999999</x:v>
       </x:c>
       <x:c r="I7" s="16" t="n">
-        <x:v>1627.34175000002</x:v>
+        <x:v>1044.2248333334</x:v>
       </x:c>
       <x:c r="J7" s="16" t="n">
-        <x:v>8205.23102083313</x:v>
+        <x:v>8946.27208333311</x:v>
       </x:c>
       <x:c r="K7" s="16" t="n">
-        <x:v>6232.25785416656</x:v>
+        <x:v>24016.9378750003</x:v>
       </x:c>
       <x:c r="L7" s="16" t="n">
-        <x:v>7122.29718750005</x:v>
+        <x:v>18686.2038958332</x:v>
       </x:c>
       <x:c r="M7" s="16" t="n">
-        <x:v>12079.9941875</x:v>
+        <x:v>13387.3018958333</x:v>
       </x:c>
       <x:c r="N7" s="16" t="n">
-        <x:v>7242.08258333337</x:v>
+        <x:v>16364.5521666668</x:v>
       </x:c>
       <x:c r="O7" s="16" t="n">
-        <x:v>8750.17291666672</x:v>
+        <x:v>4656.47145833343</x:v>
       </x:c>
       <x:c r="P7" s="16" t="n">
-        <x:v>18213.6845833333</x:v>
+        <x:v>839.175625000033</x:v>
+      </x:c>
+      <x:c r="Q7" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R7" s="16" t="n">
+        <x:v>4979.06039583334</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:146">
@@ -1704,36 +1814,36 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C8" s="15" t="n">
-        <x:v>10665.1120565476</x:v>
+        <x:v>9883.01392361106</x:v>
       </x:c>
       <x:c r="D8" s="15" t="n">
-        <x:v>135931.259625</x:v>
+        <x:v>363444.237645831</x:v>
       </x:c>
       <x:c r="E8" s="16" t="s"/>
       <x:c r="F8" s="16" t="s"/>
       <x:c r="G8" s="16" t="s"/>
       <x:c r="H8" s="16" t="s"/>
       <x:c r="I8" s="16" t="s"/>
-      <x:c r="J8" s="16" t="n">
-        <x:v>5218.78883333332</x:v>
-      </x:c>
-      <x:c r="K8" s="16" t="n">
-        <x:v>20299.5419583332</x:v>
-      </x:c>
-      <x:c r="L8" s="16" t="n">
-        <x:v>13515.6926249999</x:v>
-      </x:c>
+      <x:c r="J8" s="16" t="s"/>
+      <x:c r="K8" s="16" t="s"/>
+      <x:c r="L8" s="16" t="s"/>
       <x:c r="M8" s="16" t="n">
-        <x:v>14214.1869791666</x:v>
+        <x:v>51.5956666666898</x:v>
       </x:c>
       <x:c r="N8" s="16" t="n">
-        <x:v>14058.39275</x:v>
+        <x:v>1900.09558333334</x:v>
       </x:c>
       <x:c r="O8" s="16" t="n">
-        <x:v>5556.6314583333</x:v>
+        <x:v>8637.94552083337</x:v>
       </x:c>
       <x:c r="P8" s="16" t="n">
-        <x:v>1792.54979166671</x:v>
+        <x:v>26631.6717499999</x:v>
+      </x:c>
+      <x:c r="Q8" s="16" t="n">
+        <x:v>15395.8654999998</x:v>
+      </x:c>
+      <x:c r="R8" s="16" t="n">
+        <x:v>6680.90952083329</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:146">
@@ -1741,320 +1851,354 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C9" s="15" t="n">
-        <x:v>10608.8045340909</x:v>
+        <x:v>9371.31079166651</x:v>
       </x:c>
       <x:c r="D9" s="15" t="n">
-        <x:v>1492014.21560417</x:v>
+        <x:v>580630.8156875</x:v>
       </x:c>
       <x:c r="E9" s="16" t="n">
-        <x:v>2434.74733333359</x:v>
+        <x:v>2945.41741666652</x:v>
       </x:c>
       <x:c r="F9" s="16" t="n">
-        <x:v>21384.5733541665</x:v>
-      </x:c>
-      <x:c r="G9" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H9" s="16" t="n">
-        <x:v>25683.1523333339</x:v>
-      </x:c>
-      <x:c r="I9" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J9" s="16" t="n">
-        <x:v>20737.125</x:v>
-      </x:c>
-      <x:c r="K9" s="16" t="n">
-        <x:v>15961.6405416671</x:v>
-      </x:c>
-      <x:c r="L9" s="16" t="n">
-        <x:v>2467.41295833304</x:v>
-      </x:c>
-      <x:c r="M9" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N9" s="16" t="n">
-        <x:v>13725.47425</x:v>
-      </x:c>
-      <x:c r="O9" s="16" t="n">
-        <x:v>14302.7241041663</x:v>
-      </x:c>
+        <x:v>15797.2041666665</x:v>
+      </x:c>
+      <x:c r="G9" s="16" t="s"/>
+      <x:c r="H9" s="16" t="s"/>
+      <x:c r="I9" s="16" t="s"/>
+      <x:c r="J9" s="16" t="s"/>
+      <x:c r="K9" s="16" t="s"/>
+      <x:c r="L9" s="16" t="s"/>
+      <x:c r="M9" s="16" t="s"/>
+      <x:c r="N9" s="16" t="s"/>
+      <x:c r="O9" s="16" t="s"/>
       <x:c r="P9" s="16" t="s"/>
+      <x:c r="Q9" s="16" t="s"/>
+      <x:c r="R9" s="16" t="s"/>
     </x:row>
     <x:row r="10" spans="1:146">
       <x:c r="B10" s="14" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="C10" s="15" t="n">
-        <x:v>9728.17255000001</x:v>
+        <x:v>9238.81307575757</x:v>
       </x:c>
       <x:c r="D10" s="15" t="n">
-        <x:v>791510.985416667</x:v>
+        <x:v>330697.891208334</x:v>
       </x:c>
       <x:c r="E10" s="16" t="n">
-        <x:v>3918.95600000001</x:v>
+        <x:v>965.787166666647</x:v>
       </x:c>
       <x:c r="F10" s="16" t="n">
-        <x:v>25564.5759166669</x:v>
+        <x:v>3940.5813750001</x:v>
       </x:c>
       <x:c r="G10" s="16" t="n">
-        <x:v>3102.05731250008</x:v>
+        <x:v>5172.01654166664</x:v>
       </x:c>
       <x:c r="H10" s="16" t="n">
-        <x:v>31759.9319583335</x:v>
+        <x:v>23970.549625</x:v>
       </x:c>
       <x:c r="I10" s="16" t="n">
-        <x:v>15.483833333361</x:v>
+        <x:v>4763.40083333332</x:v>
       </x:c>
       <x:c r="J10" s="16" t="n">
-        <x:v>18699.7495624997</x:v>
+        <x:v>7061.31637499988</x:v>
       </x:c>
       <x:c r="K10" s="16" t="n">
-        <x:v>7187.46074999997</x:v>
+        <x:v>12409.8149583334</x:v>
       </x:c>
       <x:c r="L10" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>2759.74787499994</x:v>
       </x:c>
       <x:c r="M10" s="16" t="n">
-        <x:v>7033.51016666659</x:v>
-      </x:c>
-      <x:c r="N10" s="16" t="s"/>
-      <x:c r="O10" s="16" t="s"/>
-      <x:c r="P10" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>14757.6032083334</x:v>
+      </x:c>
+      <x:c r="N10" s="16" t="n">
+        <x:v>8099.46866666689</x:v>
+      </x:c>
+      <x:c r="O10" s="16" t="n">
+        <x:v>17726.6572083331</x:v>
+      </x:c>
+      <x:c r="P10" s="16" t="s"/>
+      <x:c r="Q10" s="16" t="s"/>
+      <x:c r="R10" s="16" t="s"/>
     </x:row>
     <x:row r="11" spans="1:146">
       <x:c r="B11" s="14" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="C11" s="15" t="n">
-        <x:v>9371.31079166651</x:v>
+        <x:v>9208.8080462963</x:v>
       </x:c>
       <x:c r="D11" s="15" t="n">
-        <x:v>580630.8156875</x:v>
+        <x:v>1013321.28791666</x:v>
       </x:c>
       <x:c r="E11" s="16" t="n">
-        <x:v>2945.41741666652</x:v>
+        <x:v>17618.3590416668</x:v>
       </x:c>
       <x:c r="F11" s="16" t="n">
-        <x:v>15797.2041666665</x:v>
-      </x:c>
-      <x:c r="G11" s="16" t="s"/>
-      <x:c r="H11" s="16" t="s"/>
-      <x:c r="I11" s="16" t="s"/>
-      <x:c r="J11" s="16" t="s"/>
-      <x:c r="K11" s="16" t="s"/>
-      <x:c r="L11" s="16" t="s"/>
-      <x:c r="M11" s="16" t="s"/>
+        <x:v>12444.6146249999</x:v>
+      </x:c>
+      <x:c r="G11" s="16" t="n">
+        <x:v>2694.34725000011</x:v>
+      </x:c>
+      <x:c r="H11" s="16" t="n">
+        <x:v>17707.9442083334</x:v>
+      </x:c>
+      <x:c r="I11" s="16" t="n">
+        <x:v>4569.39695833321</x:v>
+      </x:c>
+      <x:c r="J11" s="16" t="n">
+        <x:v>2466.94858333317</x:v>
+      </x:c>
+      <x:c r="K11" s="16" t="n">
+        <x:v>16494.2094166668</x:v>
+      </x:c>
+      <x:c r="L11" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M11" s="16" t="n">
+        <x:v>8883.45233333332</x:v>
+      </x:c>
       <x:c r="N11" s="16" t="s"/>
       <x:c r="O11" s="16" t="s"/>
       <x:c r="P11" s="16" t="s"/>
+      <x:c r="Q11" s="16" t="s"/>
+      <x:c r="R11" s="16" t="s"/>
     </x:row>
     <x:row r="12" spans="1:146">
       <x:c r="B12" s="14" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="C12" s="15" t="n">
-        <x:v>9305.32713020832</x:v>
+        <x:v>8528.93334821433</x:v>
       </x:c>
       <x:c r="D12" s="15" t="n">
-        <x:v>341367.462624998</x:v>
-      </x:c>
-      <x:c r="E12" s="16" t="s"/>
-      <x:c r="F12" s="16" t="s"/>
-      <x:c r="G12" s="16" t="s"/>
-      <x:c r="H12" s="16" t="s"/>
-      <x:c r="I12" s="16" t="s"/>
-      <x:c r="J12" s="16" t="s"/>
-      <x:c r="K12" s="16" t="s"/>
+        <x:v>1580552.31064584</x:v>
+      </x:c>
+      <x:c r="E12" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F12" s="16" t="n">
+        <x:v>2784.51300000004</x:v>
+      </x:c>
+      <x:c r="G12" s="16" t="n">
+        <x:v>5535.94585416676</x:v>
+      </x:c>
+      <x:c r="H12" s="16" t="n">
+        <x:v>40464.4417500005</x:v>
+      </x:c>
+      <x:c r="I12" s="16" t="n">
+        <x:v>259.137166666798</x:v>
+      </x:c>
+      <x:c r="J12" s="16" t="n">
+        <x:v>10531.527583333</x:v>
+      </x:c>
+      <x:c r="K12" s="16" t="n">
+        <x:v>126.968083333224</x:v>
+      </x:c>
       <x:c r="L12" s="16" t="s"/>
-      <x:c r="M12" s="16" t="n">
-        <x:v>51.5956666666898</x:v>
-      </x:c>
-      <x:c r="N12" s="16" t="n">
-        <x:v>1900.09558333334</x:v>
-      </x:c>
-      <x:c r="O12" s="16" t="n">
-        <x:v>8637.94552083337</x:v>
-      </x:c>
-      <x:c r="P12" s="16" t="n">
-        <x:v>26631.6717499999</x:v>
-      </x:c>
+      <x:c r="M12" s="16" t="s"/>
+      <x:c r="N12" s="16" t="s"/>
+      <x:c r="O12" s="16" t="s"/>
+      <x:c r="P12" s="16" t="s"/>
+      <x:c r="Q12" s="16" t="s"/>
+      <x:c r="R12" s="16" t="s"/>
     </x:row>
     <x:row r="13" spans="1:146" x14ac:dyDescent="0.25">
       <x:c r="B13" s="14" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="C13" s="15" t="n">
-        <x:v>9238.81307575757</x:v>
+        <x:v>8517.24822916667</x:v>
       </x:c>
       <x:c r="D13" s="15" t="n">
-        <x:v>330697.891208334</x:v>
+        <x:v>796436.238666667</x:v>
       </x:c>
       <x:c r="E13" s="16" t="n">
-        <x:v>965.787166666647</x:v>
+        <x:v>3918.95600000001</x:v>
       </x:c>
       <x:c r="F13" s="16" t="n">
-        <x:v>3940.5813750001</x:v>
+        <x:v>25564.5759166669</x:v>
       </x:c>
       <x:c r="G13" s="16" t="n">
-        <x:v>5172.01654166664</x:v>
+        <x:v>3102.05731250008</x:v>
       </x:c>
       <x:c r="H13" s="16" t="n">
-        <x:v>23970.549625</x:v>
+        <x:v>31759.9319583335</x:v>
       </x:c>
       <x:c r="I13" s="16" t="n">
-        <x:v>4763.40083333332</x:v>
+        <x:v>15.483833333361</x:v>
       </x:c>
       <x:c r="J13" s="16" t="n">
-        <x:v>7061.31637499988</x:v>
+        <x:v>18699.7495624997</x:v>
       </x:c>
       <x:c r="K13" s="16" t="n">
-        <x:v>12409.8149583334</x:v>
+        <x:v>7187.46074999997</x:v>
       </x:c>
       <x:c r="L13" s="16" t="n">
-        <x:v>2759.74787499994</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M13" s="16" t="n">
-        <x:v>14757.6032083334</x:v>
-      </x:c>
-      <x:c r="N13" s="16" t="n">
-        <x:v>8099.46866666689</x:v>
-      </x:c>
-      <x:c r="O13" s="16" t="n">
-        <x:v>17726.6572083331</x:v>
-      </x:c>
-      <x:c r="P13" s="16" t="s"/>
-      <x:c r="AC13" s="17" t="s"/>
+        <x:v>7033.51016666659</x:v>
+      </x:c>
+      <x:c r="N13" s="16" t="s"/>
+      <x:c r="O13" s="16" t="s"/>
+      <x:c r="P13" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q13" s="16" t="n">
+        <x:v>4925.25324999995</x:v>
+      </x:c>
+      <x:c r="R13" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AE13" s="17" t="s"/>
     </x:row>
     <x:row r="14" spans="1:146" x14ac:dyDescent="0.25">
       <x:c r="B14" s="14" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C14" s="15" t="n">
-        <x:v>9208.8080462963</x:v>
+        <x:v>8503.67423379627</x:v>
       </x:c>
       <x:c r="D14" s="15" t="n">
-        <x:v>1013321.28791666</x:v>
-      </x:c>
-      <x:c r="E14" s="16" t="n">
-        <x:v>17618.3590416668</x:v>
-      </x:c>
-      <x:c r="F14" s="16" t="n">
-        <x:v>12444.6146249999</x:v>
-      </x:c>
-      <x:c r="G14" s="16" t="n">
-        <x:v>2694.34725000011</x:v>
-      </x:c>
-      <x:c r="H14" s="16" t="n">
-        <x:v>17707.9442083334</x:v>
-      </x:c>
-      <x:c r="I14" s="16" t="n">
-        <x:v>4569.39695833321</x:v>
-      </x:c>
+        <x:v>137808.543333333</x:v>
+      </x:c>
+      <x:c r="E14" s="16" t="s"/>
+      <x:c r="F14" s="16" t="s"/>
+      <x:c r="G14" s="16" t="s"/>
+      <x:c r="H14" s="16" t="s"/>
+      <x:c r="I14" s="16" t="s"/>
       <x:c r="J14" s="16" t="n">
-        <x:v>2466.94858333317</x:v>
+        <x:v>5218.78883333332</x:v>
       </x:c>
       <x:c r="K14" s="16" t="n">
-        <x:v>16494.2094166668</x:v>
+        <x:v>20299.5419583332</x:v>
       </x:c>
       <x:c r="L14" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>13515.6926249999</x:v>
       </x:c>
       <x:c r="M14" s="16" t="n">
-        <x:v>8883.45233333332</x:v>
-      </x:c>
-      <x:c r="N14" s="16" t="s"/>
-      <x:c r="O14" s="16" t="s"/>
-      <x:c r="P14" s="16" t="s"/>
-      <x:c r="Z14" s="16" t="s"/>
-      <x:c r="AA14" s="16" t="s"/>
+        <x:v>14214.1869791666</x:v>
+      </x:c>
+      <x:c r="N14" s="16" t="n">
+        <x:v>14058.39275</x:v>
+      </x:c>
+      <x:c r="O14" s="16" t="n">
+        <x:v>5556.6314583333</x:v>
+      </x:c>
+      <x:c r="P14" s="16" t="n">
+        <x:v>1792.54979166671</x:v>
+      </x:c>
+      <x:c r="Q14" s="16" t="n">
+        <x:v>1505.2369166667</x:v>
+      </x:c>
+      <x:c r="R14" s="16" t="n">
+        <x:v>372.046791666682</x:v>
+      </x:c>
       <x:c r="AB14" s="16" t="s"/>
       <x:c r="AC14" s="16" t="s"/>
+      <x:c r="AD14" s="16" t="s"/>
+      <x:c r="AE14" s="16" t="s"/>
     </x:row>
     <x:row r="15" spans="1:146">
       <x:c r="B15" s="14" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="C15" s="15" t="n">
-        <x:v>8528.93334821433</x:v>
+        <x:v>8249.48605059524</x:v>
       </x:c>
       <x:c r="D15" s="15" t="n">
-        <x:v>1580552.31064584</x:v>
+        <x:v>257734.168354166</x:v>
       </x:c>
       <x:c r="E15" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>8135.86852083335</x:v>
       </x:c>
       <x:c r="F15" s="16" t="n">
-        <x:v>2784.51300000004</x:v>
+        <x:v>10506.4219374999</x:v>
       </x:c>
       <x:c r="G15" s="16" t="n">
-        <x:v>5535.94585416676</x:v>
+        <x:v>612.493458333338</x:v>
       </x:c>
       <x:c r="H15" s="16" t="n">
-        <x:v>40464.4417500005</x:v>
+        <x:v>4673.49975000002</x:v>
       </x:c>
       <x:c r="I15" s="16" t="n">
-        <x:v>259.137166666798</x:v>
+        <x:v>16139.7532083334</x:v>
       </x:c>
       <x:c r="J15" s="16" t="n">
-        <x:v>10531.527583333</x:v>
+        <x:v>2134.32833333337</x:v>
       </x:c>
       <x:c r="K15" s="16" t="n">
-        <x:v>126.968083333224</x:v>
-      </x:c>
-      <x:c r="L15" s="16" t="s"/>
-      <x:c r="M15" s="16" t="s"/>
-      <x:c r="N15" s="16" t="s"/>
-      <x:c r="O15" s="16" t="s"/>
-      <x:c r="P15" s="16" t="s"/>
+        <x:v>11260.3069375</x:v>
+      </x:c>
+      <x:c r="L15" s="16" t="n">
+        <x:v>3584.19310416662</x:v>
+      </x:c>
+      <x:c r="M15" s="16" t="n">
+        <x:v>6267.45929166666</x:v>
+      </x:c>
+      <x:c r="N15" s="16" t="n">
+        <x:v>14704.4330833334</x:v>
+      </x:c>
+      <x:c r="O15" s="16" t="n">
+        <x:v>3465.78737499996</x:v>
+      </x:c>
+      <x:c r="P15" s="16" t="n">
+        <x:v>14106.3906875</x:v>
+      </x:c>
+      <x:c r="Q15" s="16" t="n">
+        <x:v>17107.0753958334</x:v>
+      </x:c>
+      <x:c r="R15" s="16" t="n">
+        <x:v>2794.79362499999</x:v>
+      </x:c>
     </x:row>
     <x:row r="16" spans="1:146">
       <x:c r="B16" s="14" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C16" s="15" t="n">
-        <x:v>7965.91130729167</x:v>
+        <x:v>7973.84029924242</x:v>
       </x:c>
       <x:c r="D16" s="15" t="n">
-        <x:v>237832.299333333</x:v>
-      </x:c>
-      <x:c r="E16" s="16" t="n">
-        <x:v>8135.86852083335</x:v>
-      </x:c>
-      <x:c r="F16" s="16" t="n">
-        <x:v>10506.4219374999</x:v>
-      </x:c>
-      <x:c r="G16" s="16" t="n">
-        <x:v>612.493458333338</x:v>
-      </x:c>
+        <x:v>157973.347083333</x:v>
+      </x:c>
+      <x:c r="E16" s="16" t="s"/>
+      <x:c r="F16" s="16" t="s"/>
+      <x:c r="G16" s="16" t="s"/>
       <x:c r="H16" s="16" t="n">
-        <x:v>4673.49975000002</x:v>
+        <x:v>1265.08383333334</x:v>
       </x:c>
       <x:c r="I16" s="16" t="n">
-        <x:v>16139.7532083334</x:v>
+        <x:v>5993.51260416667</x:v>
       </x:c>
       <x:c r="J16" s="16" t="n">
-        <x:v>2134.32833333337</x:v>
+        <x:v>6467.8202708333</x:v>
       </x:c>
       <x:c r="K16" s="16" t="n">
-        <x:v>11260.3069375</x:v>
+        <x:v>15364.3109583333</x:v>
       </x:c>
       <x:c r="L16" s="16" t="n">
-        <x:v>3584.19310416662</x:v>
+        <x:v>3272.94250000003</x:v>
       </x:c>
       <x:c r="M16" s="16" t="n">
-        <x:v>6267.45929166666</x:v>
+        <x:v>5365.12216666673</x:v>
       </x:c>
       <x:c r="N16" s="16" t="n">
-        <x:v>14704.4330833334</x:v>
+        <x:v>9046.47785416667</x:v>
       </x:c>
       <x:c r="O16" s="16" t="n">
-        <x:v>3465.78737499996</x:v>
+        <x:v>893.273249999998</x:v>
       </x:c>
       <x:c r="P16" s="16" t="n">
-        <x:v>14106.3906875</x:v>
+        <x:v>29588.9404791666</x:v>
+      </x:c>
+      <x:c r="Q16" s="16" t="n">
+        <x:v>7955.65554166667</x:v>
+      </x:c>
+      <x:c r="R16" s="16" t="n">
+        <x:v>2499.10383333333</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:146">
@@ -2062,112 +2206,124 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C17" s="15" t="n">
-        <x:v>7765.68416666664</x:v>
+        <x:v>7696.91513750007</x:v>
       </x:c>
       <x:c r="D17" s="15" t="n">
-        <x:v>264121.465083333</x:v>
-      </x:c>
-      <x:c r="E17" s="16" t="s"/>
-      <x:c r="F17" s="16" t="s"/>
+        <x:v>455235.006687501</x:v>
+      </x:c>
+      <x:c r="E17" s="16" t="n">
+        <x:v>4.66883333335863</x:v>
+      </x:c>
+      <x:c r="F17" s="16" t="n">
+        <x:v>15433.7686250001</x:v>
+      </x:c>
       <x:c r="G17" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>365.425708333321</x:v>
       </x:c>
       <x:c r="H17" s="16" t="n">
-        <x:v>12126.0477916666</x:v>
+        <x:v>31934.4692500001</x:v>
       </x:c>
       <x:c r="I17" s="16" t="n">
-        <x:v>6156.70416666658</x:v>
-      </x:c>
-      <x:c r="J17" s="16" t="n">
-        <x:v>5017.90362500004</x:v>
-      </x:c>
+        <x:v>3310.55924999999</x:v>
+      </x:c>
+      <x:c r="J17" s="16" t="s"/>
       <x:c r="K17" s="16" t="n">
-        <x:v>15512.7030416665</x:v>
+        <x:v>6940.83258333337</x:v>
       </x:c>
       <x:c r="L17" s="16" t="n">
-        <x:v>8737.18991666663</x:v>
+        <x:v>187.135999999999</x:v>
       </x:c>
       <x:c r="M17" s="16" t="n">
-        <x:v>5728.31799999997</x:v>
+        <x:v>14482.1211250002</x:v>
       </x:c>
       <x:c r="N17" s="16" t="n">
-        <x:v>2992.08333333326</x:v>
+        <x:v>77.4070000000065</x:v>
       </x:c>
       <x:c r="O17" s="16" t="n">
-        <x:v>14364.4675000001</x:v>
-      </x:c>
-      <x:c r="P17" s="16" t="n">
-        <x:v>7021.42429166677</x:v>
-      </x:c>
+        <x:v>4232.76300000021</x:v>
+      </x:c>
+      <x:c r="P17" s="16" t="s"/>
+      <x:c r="Q17" s="16" t="s"/>
+      <x:c r="R17" s="16" t="s"/>
     </x:row>
     <x:row r="18" spans="1:146">
       <x:c r="B18" s="14" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="C18" s="15" t="n">
-        <x:v>7696.91513750007</x:v>
+        <x:v>7173.3294722222</x:v>
       </x:c>
       <x:c r="D18" s="15" t="n">
-        <x:v>455235.006687501</x:v>
-      </x:c>
-      <x:c r="E18" s="16" t="n">
-        <x:v>4.66883333335863</x:v>
-      </x:c>
-      <x:c r="F18" s="16" t="n">
-        <x:v>15433.7686250001</x:v>
-      </x:c>
-      <x:c r="G18" s="16" t="n">
-        <x:v>365.425708333321</x:v>
-      </x:c>
-      <x:c r="H18" s="16" t="n">
-        <x:v>31934.4692500001</x:v>
-      </x:c>
-      <x:c r="I18" s="16" t="n">
-        <x:v>3310.55924999999</x:v>
-      </x:c>
+        <x:v>163575.374479167</x:v>
+      </x:c>
+      <x:c r="E18" s="16" t="s"/>
+      <x:c r="F18" s="16" t="s"/>
+      <x:c r="G18" s="16" t="s"/>
+      <x:c r="H18" s="16" t="s"/>
+      <x:c r="I18" s="16" t="s"/>
       <x:c r="J18" s="16" t="s"/>
-      <x:c r="K18" s="16" t="n">
-        <x:v>6940.83258333337</x:v>
-      </x:c>
-      <x:c r="L18" s="16" t="n">
-        <x:v>187.135999999999</x:v>
-      </x:c>
-      <x:c r="M18" s="16" t="n">
-        <x:v>14482.1211250002</x:v>
-      </x:c>
-      <x:c r="N18" s="16" t="n">
-        <x:v>77.4070000000065</x:v>
-      </x:c>
-      <x:c r="O18" s="16" t="n">
-        <x:v>4232.76300000021</x:v>
-      </x:c>
-      <x:c r="P18" s="16" t="s"/>
+      <x:c r="K18" s="16" t="s"/>
+      <x:c r="L18" s="16" t="s"/>
+      <x:c r="M18" s="16" t="s"/>
+      <x:c r="N18" s="16" t="s"/>
+      <x:c r="O18" s="16" t="s"/>
+      <x:c r="P18" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q18" s="16" t="n">
+        <x:v>21519.9884166666</x:v>
+      </x:c>
+      <x:c r="R18" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="19" spans="1:146">
       <x:c r="B19" s="14" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C19" s="15" t="n">
-        <x:v>5589.4481458333</x:v>
+        <x:v>6911.98595486108</x:v>
       </x:c>
       <x:c r="D19" s="15" t="n">
-        <x:v>418915.112791666</x:v>
+        <x:v>269408.454874999</x:v>
       </x:c>
       <x:c r="E19" s="16" t="s"/>
       <x:c r="F19" s="16" t="s"/>
-      <x:c r="G19" s="16" t="s"/>
-      <x:c r="H19" s="16" t="s"/>
-      <x:c r="I19" s="16" t="s"/>
-      <x:c r="J19" s="16" t="s"/>
-      <x:c r="K19" s="16" t="s"/>
-      <x:c r="L19" s="16" t="s"/>
-      <x:c r="M19" s="16" t="s"/>
-      <x:c r="N19" s="16" t="s"/>
+      <x:c r="G19" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H19" s="16" t="n">
+        <x:v>12126.0477916666</x:v>
+      </x:c>
+      <x:c r="I19" s="16" t="n">
+        <x:v>6156.70416666658</x:v>
+      </x:c>
+      <x:c r="J19" s="16" t="n">
+        <x:v>5017.90362500004</x:v>
+      </x:c>
+      <x:c r="K19" s="16" t="n">
+        <x:v>15512.7030416665</x:v>
+      </x:c>
+      <x:c r="L19" s="16" t="n">
+        <x:v>8737.18991666663</x:v>
+      </x:c>
+      <x:c r="M19" s="16" t="n">
+        <x:v>5728.31799999997</x:v>
+      </x:c>
+      <x:c r="N19" s="16" t="n">
+        <x:v>2992.08333333326</x:v>
+      </x:c>
       <x:c r="O19" s="16" t="n">
-        <x:v>6831.10820833326</x:v>
+        <x:v>14364.4675000001</x:v>
       </x:c>
       <x:c r="P19" s="16" t="n">
-        <x:v>4347.78808333335</x:v>
+        <x:v>7021.42429166677</x:v>
+      </x:c>
+      <x:c r="Q19" s="16" t="n">
+        <x:v>4497.08920833311</x:v>
+      </x:c>
+      <x:c r="R19" s="16" t="n">
+        <x:v>789.900583333394</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:146">
@@ -2175,10 +2331,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C20" s="15" t="n">
-        <x:v>5520.96040798608</x:v>
+        <x:v>5649.27227232141</x:v>
       </x:c>
       <x:c r="D20" s="15" t="n">
-        <x:v>1287943.93333333</x:v>
+        <x:v>1300782.22025</x:v>
       </x:c>
       <x:c r="E20" s="16" t="n">
         <x:v>2230.69337500003</x:v>
@@ -2215,6 +2371,12 @@
       </x:c>
       <x:c r="P20" s="16" t="n">
         <x:v>692.118500000099</x:v>
+      </x:c>
+      <x:c r="Q20" s="16" t="n">
+        <x:v>12838.2869166667</x:v>
+      </x:c>
+      <x:c r="R20" s="16" t="n">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:146">
@@ -2222,200 +2384,214 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C21" s="15" t="n">
-        <x:v>4792.76920833324</x:v>
+        <x:v>5093.84686458332</x:v>
       </x:c>
       <x:c r="D21" s="15" t="n">
-        <x:v>718443.278854166</x:v>
+        <x:v>428111.603958332</x:v>
       </x:c>
       <x:c r="E21" s="16" t="s"/>
       <x:c r="F21" s="16" t="s"/>
-      <x:c r="G21" s="16" t="n">
-        <x:v>1013.97254166671</x:v>
-      </x:c>
-      <x:c r="H21" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I21" s="16" t="n">
-        <x:v>13364.335083333</x:v>
-      </x:c>
+      <x:c r="G21" s="16" t="s"/>
+      <x:c r="H21" s="16" t="s"/>
+      <x:c r="I21" s="16" t="s"/>
       <x:c r="J21" s="16" t="s"/>
       <x:c r="K21" s="16" t="s"/>
       <x:c r="L21" s="16" t="s"/>
       <x:c r="M21" s="16" t="s"/>
       <x:c r="N21" s="16" t="s"/>
-      <x:c r="O21" s="16" t="s"/>
-      <x:c r="P21" s="16" t="s"/>
+      <x:c r="O21" s="16" t="n">
+        <x:v>6831.10820833326</x:v>
+      </x:c>
+      <x:c r="P21" s="16" t="n">
+        <x:v>4347.78808333335</x:v>
+      </x:c>
+      <x:c r="Q21" s="16" t="n">
+        <x:v>6541.65525000001</x:v>
+      </x:c>
+      <x:c r="R21" s="16" t="n">
+        <x:v>2654.83591666666</x:v>
+      </x:c>
     </x:row>
     <x:row r="22" spans="1:146">
       <x:c r="B22" s="14" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="C22" s="15" t="n">
-        <x:v>4465.88207291662</x:v>
+        <x:v>4792.76920833324</x:v>
       </x:c>
       <x:c r="D22" s="15" t="n">
-        <x:v>590206.806041664</x:v>
-      </x:c>
-      <x:c r="E22" s="16" t="n">
-        <x:v>8550.49175000016</x:v>
-      </x:c>
-      <x:c r="F22" s="16" t="n">
-        <x:v>12311.9666666664</x:v>
-      </x:c>
+        <x:v>718443.278854166</x:v>
+      </x:c>
+      <x:c r="E22" s="16" t="s"/>
+      <x:c r="F22" s="16" t="s"/>
       <x:c r="G22" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>1013.97254166671</x:v>
       </x:c>
       <x:c r="H22" s="16" t="n">
-        <x:v>10952.8416666666</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I22" s="16" t="n">
-        <x:v>4793.28308333328</x:v>
-      </x:c>
-      <x:c r="J22" s="16" t="n">
-        <x:v>7174.28899999987</x:v>
-      </x:c>
-      <x:c r="K22" s="16" t="n">
-        <x:v>4213.50049999985</x:v>
-      </x:c>
-      <x:c r="L22" s="16" t="n">
-        <x:v>1975.51416666689</x:v>
-      </x:c>
-      <x:c r="M22" s="16" t="n">
-        <x:v>2447.98920833319</x:v>
-      </x:c>
-      <x:c r="N22" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O22" s="16" t="n">
-        <x:v>1170.70883333322</x:v>
-      </x:c>
-      <x:c r="P22" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>13364.335083333</x:v>
+      </x:c>
+      <x:c r="J22" s="16" t="s"/>
+      <x:c r="K22" s="16" t="s"/>
+      <x:c r="L22" s="16" t="s"/>
+      <x:c r="M22" s="16" t="s"/>
+      <x:c r="N22" s="16" t="s"/>
+      <x:c r="O22" s="16" t="s"/>
+      <x:c r="P22" s="16" t="s"/>
+      <x:c r="Q22" s="16" t="s"/>
+      <x:c r="R22" s="16" t="s"/>
     </x:row>
     <x:row r="23" spans="1:146">
       <x:c r="B23" s="14" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="C23" s="15" t="n">
-        <x:v>3843.52587499998</x:v>
+        <x:v>4493.18296153852</x:v>
       </x:c>
       <x:c r="D23" s="15" t="n">
-        <x:v>170894.240979165</x:v>
-      </x:c>
-      <x:c r="E23" s="16" t="s"/>
-      <x:c r="F23" s="16" t="s"/>
+        <x:v>610951.396229168</x:v>
+      </x:c>
+      <x:c r="E23" s="16" t="n">
+        <x:v>5295.85991666664</x:v>
+      </x:c>
+      <x:c r="F23" s="16" t="n">
+        <x:v>12238.2208333338</x:v>
+      </x:c>
       <x:c r="G23" s="16" t="s"/>
       <x:c r="H23" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="I23" s="16" t="s"/>
+      <x:c r="I23" s="16" t="n">
+        <x:v>2271.32029166666</x:v>
+      </x:c>
       <x:c r="J23" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>1761.20737500058</x:v>
       </x:c>
       <x:c r="K23" s="16" t="n">
-        <x:v>6254.31633333332</x:v>
+        <x:v>4228.48891666625</x:v>
       </x:c>
       <x:c r="L23" s="16" t="n">
-        <x:v>1898.92566666668</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M23" s="16" t="n">
-        <x:v>11064.3873749999</x:v>
-      </x:c>
-      <x:c r="N23" s="16" t="s"/>
-      <x:c r="O23" s="16" t="s"/>
-      <x:c r="P23" s="16" t="s"/>
+        <x:v>96.40783333336</x:v>
+      </x:c>
+      <x:c r="N23" s="16" t="n">
+        <x:v>531.85545833339</x:v>
+      </x:c>
+      <x:c r="O23" s="16" t="n">
+        <x:v>2138.67658333352</x:v>
+      </x:c>
+      <x:c r="P23" s="16" t="n">
+        <x:v>9194.79887499975</x:v>
+      </x:c>
+      <x:c r="Q23" s="16" t="n">
+        <x:v>20654.5424166668</x:v>
+      </x:c>
+      <x:c r="R23" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="24" spans="1:146">
       <x:c r="B24" s="14" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="C24" s="15" t="n">
-        <x:v>3641.48823611108</x:v>
+        <x:v>4122.35268269227</x:v>
       </x:c>
       <x:c r="D24" s="15" t="n">
-        <x:v>241546.663104166</x:v>
-      </x:c>
-      <x:c r="E24" s="16" t="s"/>
-      <x:c r="F24" s="16" t="s"/>
-      <x:c r="G24" s="16" t="s"/>
-      <x:c r="H24" s="16" t="s"/>
-      <x:c r="I24" s="16" t="s"/>
-      <x:c r="J24" s="16" t="s"/>
-      <x:c r="K24" s="16" t="s"/>
-      <x:c r="L24" s="16" t="s"/>
-      <x:c r="M24" s="16" t="s"/>
+        <x:v>590206.806041664</x:v>
+      </x:c>
+      <x:c r="E24" s="16" t="n">
+        <x:v>8550.49175000016</x:v>
+      </x:c>
+      <x:c r="F24" s="16" t="n">
+        <x:v>12311.9666666664</x:v>
+      </x:c>
+      <x:c r="G24" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H24" s="16" t="n">
+        <x:v>10952.8416666666</x:v>
+      </x:c>
+      <x:c r="I24" s="16" t="n">
+        <x:v>4793.28308333328</x:v>
+      </x:c>
+      <x:c r="J24" s="16" t="n">
+        <x:v>7174.28899999987</x:v>
+      </x:c>
+      <x:c r="K24" s="16" t="n">
+        <x:v>4213.50049999985</x:v>
+      </x:c>
+      <x:c r="L24" s="16" t="n">
+        <x:v>1975.51416666689</x:v>
+      </x:c>
+      <x:c r="M24" s="16" t="n">
+        <x:v>2447.98920833319</x:v>
+      </x:c>
       <x:c r="N24" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O24" s="16" t="n">
-        <x:v>8080.01466666657</x:v>
+        <x:v>1170.70883333322</x:v>
       </x:c>
       <x:c r="P24" s="16" t="n">
-        <x:v>2844.45004166666</x:v>
-      </x:c>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q24" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R24" s="16" t="s"/>
     </x:row>
     <x:row r="25" spans="1:146">
       <x:c r="B25" s="14" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C25" s="15" t="n">
-        <x:v>3432.43964393945</x:v>
+        <x:v>3843.52587499998</x:v>
       </x:c>
       <x:c r="D25" s="15" t="n">
-        <x:v>590296.853812501</x:v>
-      </x:c>
-      <x:c r="E25" s="16" t="n">
-        <x:v>5295.85991666664</x:v>
-      </x:c>
-      <x:c r="F25" s="16" t="n">
-        <x:v>12238.2208333338</x:v>
-      </x:c>
+        <x:v>170894.240979165</x:v>
+      </x:c>
+      <x:c r="E25" s="16" t="s"/>
+      <x:c r="F25" s="16" t="s"/>
       <x:c r="G25" s="16" t="s"/>
       <x:c r="H25" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="I25" s="16" t="n">
-        <x:v>2271.32029166666</x:v>
-      </x:c>
+      <x:c r="I25" s="16" t="s"/>
       <x:c r="J25" s="16" t="n">
-        <x:v>1761.20737500058</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K25" s="16" t="n">
-        <x:v>4228.48891666625</x:v>
+        <x:v>6254.31633333332</x:v>
       </x:c>
       <x:c r="L25" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>1898.92566666668</x:v>
       </x:c>
       <x:c r="M25" s="16" t="n">
-        <x:v>96.40783333336</x:v>
-      </x:c>
-      <x:c r="N25" s="16" t="n">
-        <x:v>531.85545833339</x:v>
-      </x:c>
-      <x:c r="O25" s="16" t="n">
-        <x:v>2138.67658333352</x:v>
-      </x:c>
-      <x:c r="P25" s="16" t="n">
-        <x:v>9194.79887499975</x:v>
-      </x:c>
+        <x:v>11064.3873749999</x:v>
+      </x:c>
+      <x:c r="N25" s="16" t="s"/>
+      <x:c r="O25" s="16" t="s"/>
+      <x:c r="P25" s="16" t="s"/>
+      <x:c r="Q25" s="16" t="s"/>
+      <x:c r="R25" s="16" t="s"/>
     </x:row>
     <x:row r="26" spans="1:146">
       <x:c r="B26" s="14" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="C26" s="15" t="n">
-        <x:v>1432.74370833332</x:v>
+        <x:v>3406.75094999999</x:v>
       </x:c>
       <x:c r="D26" s="15" t="n">
-        <x:v>153534.57825</x:v>
-      </x:c>
-      <x:c r="E26" s="16" t="n">
-        <x:v>2865.48741666664</x:v>
-      </x:c>
-      <x:c r="F26" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>247655.953145833</x:v>
+      </x:c>
+      <x:c r="E26" s="16" t="s"/>
+      <x:c r="F26" s="16" t="s"/>
       <x:c r="G26" s="16" t="s"/>
       <x:c r="H26" s="16" t="s"/>
       <x:c r="I26" s="16" t="s"/>
@@ -2423,97 +2599,121 @@
       <x:c r="K26" s="16" t="s"/>
       <x:c r="L26" s="16" t="s"/>
       <x:c r="M26" s="16" t="s"/>
-      <x:c r="N26" s="16" t="s"/>
-      <x:c r="O26" s="16" t="s"/>
-      <x:c r="P26" s="16" t="s"/>
+      <x:c r="N26" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O26" s="16" t="n">
+        <x:v>8080.01466666657</x:v>
+      </x:c>
+      <x:c r="P26" s="16" t="n">
+        <x:v>2844.45004166666</x:v>
+      </x:c>
+      <x:c r="Q26" s="16" t="n">
+        <x:v>2699.3517916667</x:v>
+      </x:c>
+      <x:c r="R26" s="16" t="n">
+        <x:v>3409.93825000004</x:v>
+      </x:c>
     </x:row>
     <x:row r="27" spans="1:146">
       <x:c r="B27" s="14" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="C27" s="15" t="n">
-        <x:v>1325.068375</x:v>
+        <x:v>2946.7941614583</x:v>
       </x:c>
       <x:c r="D27" s="15" t="n">
-        <x:v>44099.1114791667</x:v>
+        <x:v>151687.017104166</x:v>
       </x:c>
       <x:c r="E27" s="16" t="s"/>
       <x:c r="F27" s="16" t="s"/>
       <x:c r="G27" s="16" t="s"/>
       <x:c r="H27" s="16" t="s"/>
       <x:c r="I27" s="16" t="s"/>
-      <x:c r="J27" s="16" t="n">
-        <x:v>1325.068375</x:v>
-      </x:c>
+      <x:c r="J27" s="16" t="s"/>
       <x:c r="K27" s="16" t="s"/>
       <x:c r="L27" s="16" t="s"/>
       <x:c r="M27" s="16" t="s"/>
       <x:c r="N27" s="16" t="s"/>
-      <x:c r="O27" s="16" t="s"/>
-      <x:c r="P27" s="16" t="s"/>
+      <x:c r="O27" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P27" s="16" t="n">
+        <x:v>1615.84604166663</x:v>
+      </x:c>
+      <x:c r="Q27" s="16" t="n">
+        <x:v>1547.94608333334</x:v>
+      </x:c>
+      <x:c r="R27" s="16" t="n">
+        <x:v>8623.38452083321</x:v>
+      </x:c>
     </x:row>
     <x:row r="28" spans="1:146">
       <x:c r="B28" s="14" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="C28" s="15" t="n">
-        <x:v>834.568744047611</x:v>
+        <x:v>2932.74145833335</x:v>
       </x:c>
       <x:c r="D28" s="15" t="n">
-        <x:v>1027312.46883334</x:v>
-      </x:c>
-      <x:c r="E28" s="16" t="n">
-        <x:v>5141.46854166663</x:v>
-      </x:c>
-      <x:c r="F28" s="16" t="n">
-        <x:v>654.626500000013</x:v>
-      </x:c>
-      <x:c r="G28" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H28" s="16" t="n">
-        <x:v>45.8861666666344</x:v>
-      </x:c>
-      <x:c r="I28" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J28" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K28" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>190952.888833333</x:v>
+      </x:c>
+      <x:c r="E28" s="16" t="s"/>
+      <x:c r="F28" s="16" t="s"/>
+      <x:c r="G28" s="16" t="s"/>
+      <x:c r="H28" s="16" t="s"/>
+      <x:c r="I28" s="16" t="s"/>
+      <x:c r="J28" s="16" t="s"/>
+      <x:c r="K28" s="16" t="s"/>
       <x:c r="L28" s="16" t="s"/>
       <x:c r="M28" s="16" t="s"/>
       <x:c r="N28" s="16" t="s"/>
       <x:c r="O28" s="16" t="s"/>
-      <x:c r="P28" s="16" t="s"/>
+      <x:c r="P28" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q28" s="16" t="n">
+        <x:v>8798.22437500005</x:v>
+      </x:c>
+      <x:c r="R28" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="29" spans="1:146">
       <x:c r="B29" s="14" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="C29" s="15" t="n">
-        <x:v>807.923020833315</x:v>
+        <x:v>2106.97405208331</x:v>
       </x:c>
       <x:c r="D29" s="15" t="n">
-        <x:v>141515.686499999</x:v>
-      </x:c>
-      <x:c r="E29" s="16" t="s"/>
-      <x:c r="F29" s="16" t="s"/>
-      <x:c r="G29" s="16" t="s"/>
-      <x:c r="H29" s="16" t="s"/>
+        <x:v>170458.4360625</x:v>
+      </x:c>
+      <x:c r="E29" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F29" s="16" t="n">
+        <x:v>5708.02599999994</x:v>
+      </x:c>
+      <x:c r="G29" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H29" s="16" t="n">
+        <x:v>6933.81831249995</x:v>
+      </x:c>
       <x:c r="I29" s="16" t="s"/>
       <x:c r="J29" s="16" t="s"/>
       <x:c r="K29" s="16" t="s"/>
       <x:c r="L29" s="16" t="s"/>
       <x:c r="M29" s="16" t="s"/>
       <x:c r="N29" s="16" t="s"/>
-      <x:c r="O29" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P29" s="16" t="n">
-        <x:v>1615.84604166663</x:v>
+      <x:c r="O29" s="16" t="s"/>
+      <x:c r="P29" s="16" t="s"/>
+      <x:c r="Q29" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R29" s="16" t="n">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:146">
@@ -2521,13 +2721,17 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="C30" s="15" t="n">
-        <x:v>770.004888888883</x:v>
+        <x:v>1432.74370833332</x:v>
       </x:c>
       <x:c r="D30" s="15" t="n">
-        <x:v>217907.854729166</x:v>
-      </x:c>
-      <x:c r="E30" s="16" t="s"/>
-      <x:c r="F30" s="16" t="s"/>
+        <x:v>153534.57825</x:v>
+      </x:c>
+      <x:c r="E30" s="16" t="n">
+        <x:v>2865.48741666664</x:v>
+      </x:c>
+      <x:c r="F30" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="G30" s="16" t="s"/>
       <x:c r="H30" s="16" t="s"/>
       <x:c r="I30" s="16" t="s"/>
@@ -2535,83 +2739,87 @@
       <x:c r="K30" s="16" t="s"/>
       <x:c r="L30" s="16" t="s"/>
       <x:c r="M30" s="16" t="s"/>
-      <x:c r="N30" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O30" s="16" t="n">
-        <x:v>1511.19541666665</x:v>
-      </x:c>
-      <x:c r="P30" s="16" t="n">
-        <x:v>798.81925</x:v>
-      </x:c>
+      <x:c r="N30" s="16" t="s"/>
+      <x:c r="O30" s="16" t="s"/>
+      <x:c r="P30" s="16" t="s"/>
+      <x:c r="Q30" s="16" t="s"/>
+      <x:c r="R30" s="16" t="s"/>
     </x:row>
     <x:row r="31" spans="1:146">
       <x:c r="B31" s="14" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="C31" s="15" t="n">
-        <x:v>658.37656944445</x:v>
+        <x:v>1325.068375</x:v>
       </x:c>
       <x:c r="D31" s="15" t="n">
-        <x:v>329340.447166666</x:v>
+        <x:v>44099.1114791667</x:v>
       </x:c>
       <x:c r="E31" s="16" t="s"/>
       <x:c r="F31" s="16" t="s"/>
       <x:c r="G31" s="16" t="s"/>
       <x:c r="H31" s="16" t="s"/>
       <x:c r="I31" s="16" t="s"/>
-      <x:c r="J31" s="16" t="s"/>
-      <x:c r="K31" s="16" t="n">
-        <x:v>1975.12970833335</x:v>
-      </x:c>
-      <x:c r="L31" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M31" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="J31" s="16" t="n">
+        <x:v>1325.068375</x:v>
+      </x:c>
+      <x:c r="K31" s="16" t="s"/>
+      <x:c r="L31" s="16" t="s"/>
+      <x:c r="M31" s="16" t="s"/>
       <x:c r="N31" s="16" t="s"/>
       <x:c r="O31" s="16" t="s"/>
       <x:c r="P31" s="16" t="s"/>
+      <x:c r="Q31" s="16" t="s"/>
+      <x:c r="R31" s="16" t="s"/>
     </x:row>
     <x:row r="32" spans="1:146">
       <x:c r="B32" s="14" t="s">
         <x:v>33</x:v>
       </x:c>
       <x:c r="C32" s="15" t="n">
-        <x:v>190.77405555554</x:v>
+        <x:v>834.568744047611</x:v>
       </x:c>
       <x:c r="D32" s="15" t="n">
-        <x:v>615513.668520833</x:v>
-      </x:c>
-      <x:c r="E32" s="16" t="s"/>
-      <x:c r="F32" s="16" t="s"/>
-      <x:c r="G32" s="16" t="s"/>
-      <x:c r="H32" s="16" t="s"/>
-      <x:c r="I32" s="16" t="s"/>
-      <x:c r="J32" s="16" t="s"/>
-      <x:c r="K32" s="16" t="s"/>
+        <x:v>1027312.46883334</x:v>
+      </x:c>
+      <x:c r="E32" s="16" t="n">
+        <x:v>5141.46854166663</x:v>
+      </x:c>
+      <x:c r="F32" s="16" t="n">
+        <x:v>654.626500000013</x:v>
+      </x:c>
+      <x:c r="G32" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H32" s="16" t="n">
+        <x:v>45.8861666666344</x:v>
+      </x:c>
+      <x:c r="I32" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J32" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K32" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="L32" s="16" t="s"/>
       <x:c r="M32" s="16" t="s"/>
-      <x:c r="N32" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O32" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P32" s="16" t="n">
-        <x:v>572.322166666621</x:v>
-      </x:c>
+      <x:c r="N32" s="16" t="s"/>
+      <x:c r="O32" s="16" t="s"/>
+      <x:c r="P32" s="16" t="s"/>
+      <x:c r="Q32" s="16" t="s"/>
+      <x:c r="R32" s="16" t="s"/>
     </x:row>
     <x:row r="33" spans="1:146">
       <x:c r="B33" s="14" t="s">
         <x:v>34</x:v>
       </x:c>
       <x:c r="C33" s="15" t="n">
-        <x:v>0</x:v>
+        <x:v>784.319416666664</x:v>
       </x:c>
       <x:c r="D33" s="15" t="n">
-        <x:v>289766.942666667</x:v>
+        <x:v>219519.437145833</x:v>
       </x:c>
       <x:c r="E33" s="16" t="s"/>
       <x:c r="F33" s="16" t="s"/>
@@ -2622,19 +2830,31 @@
       <x:c r="K33" s="16" t="s"/>
       <x:c r="L33" s="16" t="s"/>
       <x:c r="M33" s="16" t="s"/>
-      <x:c r="N33" s="16" t="s"/>
-      <x:c r="O33" s="16" t="s"/>
-      <x:c r="P33" s="16" t="s"/>
+      <x:c r="N33" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O33" s="16" t="n">
+        <x:v>1511.19541666665</x:v>
+      </x:c>
+      <x:c r="P33" s="16" t="n">
+        <x:v>798.81925</x:v>
+      </x:c>
+      <x:c r="Q33" s="16" t="n">
+        <x:v>1611.58241666667</x:v>
+      </x:c>
+      <x:c r="R33" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="34" spans="1:146">
       <x:c r="B34" s="14" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="C34" s="15" t="n">
-        <x:v>0</x:v>
+        <x:v>658.37656944445</x:v>
       </x:c>
       <x:c r="D34" s="15" t="n">
-        <x:v>977092.571874998</x:v>
+        <x:v>329340.447166666</x:v>
       </x:c>
       <x:c r="E34" s="16" t="s"/>
       <x:c r="F34" s="16" t="s"/>
@@ -2642,22 +2862,30 @@
       <x:c r="H34" s="16" t="s"/>
       <x:c r="I34" s="16" t="s"/>
       <x:c r="J34" s="16" t="s"/>
-      <x:c r="K34" s="16" t="s"/>
-      <x:c r="L34" s="16" t="s"/>
-      <x:c r="M34" s="16" t="s"/>
+      <x:c r="K34" s="16" t="n">
+        <x:v>1975.12970833335</x:v>
+      </x:c>
+      <x:c r="L34" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M34" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="N34" s="16" t="s"/>
       <x:c r="O34" s="16" t="s"/>
       <x:c r="P34" s="16" t="s"/>
+      <x:c r="Q34" s="16" t="s"/>
+      <x:c r="R34" s="16" t="s"/>
     </x:row>
     <x:row r="35" spans="1:146">
       <x:c r="B35" s="14" t="s">
         <x:v>36</x:v>
       </x:c>
       <x:c r="C35" s="15" t="n">
-        <x:v>0</x:v>
+        <x:v>190.77405555554</x:v>
       </x:c>
       <x:c r="D35" s="15" t="n">
-        <x:v>304372.801000001</x:v>
+        <x:v>615513.668520833</x:v>
       </x:c>
       <x:c r="E35" s="16" t="s"/>
       <x:c r="F35" s="16" t="s"/>
@@ -2668,9 +2896,17 @@
       <x:c r="K35" s="16" t="s"/>
       <x:c r="L35" s="16" t="s"/>
       <x:c r="M35" s="16" t="s"/>
-      <x:c r="N35" s="16" t="s"/>
-      <x:c r="O35" s="16" t="s"/>
-      <x:c r="P35" s="16" t="s"/>
+      <x:c r="N35" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O35" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P35" s="16" t="n">
+        <x:v>572.322166666621</x:v>
+      </x:c>
+      <x:c r="Q35" s="16" t="s"/>
+      <x:c r="R35" s="16" t="s"/>
     </x:row>
     <x:row r="36" spans="1:146">
       <x:c r="B36" s="14" t="s">
@@ -2680,7 +2916,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D36" s="15" t="n">
-        <x:v>631676.706874999</x:v>
+        <x:v>289766.942666667</x:v>
       </x:c>
       <x:c r="E36" s="16" t="s"/>
       <x:c r="F36" s="16" t="s"/>
@@ -2694,6 +2930,8 @@
       <x:c r="N36" s="16" t="s"/>
       <x:c r="O36" s="16" t="s"/>
       <x:c r="P36" s="16" t="s"/>
+      <x:c r="Q36" s="16" t="s"/>
+      <x:c r="R36" s="16" t="s"/>
     </x:row>
     <x:row r="37" spans="1:146">
       <x:c r="B37" s="14" t="s">
@@ -2703,7 +2941,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D37" s="15" t="n">
-        <x:v>317308.654583334</x:v>
+        <x:v>977092.571874998</x:v>
       </x:c>
       <x:c r="E37" s="16" t="s"/>
       <x:c r="F37" s="16" t="s"/>
@@ -2717,6 +2955,8 @@
       <x:c r="N37" s="16" t="s"/>
       <x:c r="O37" s="16" t="s"/>
       <x:c r="P37" s="16" t="s"/>
+      <x:c r="Q37" s="16" t="s"/>
+      <x:c r="R37" s="16" t="s"/>
     </x:row>
     <x:row r="38" spans="1:146">
       <x:c r="B38" s="14" t="s">
@@ -2726,7 +2966,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D38" s="15" t="n">
-        <x:v>353585.801208333</x:v>
+        <x:v>304372.801000001</x:v>
       </x:c>
       <x:c r="E38" s="16" t="s"/>
       <x:c r="F38" s="16" t="s"/>
@@ -2740,6 +2980,8 @@
       <x:c r="N38" s="16" t="s"/>
       <x:c r="O38" s="16" t="s"/>
       <x:c r="P38" s="16" t="s"/>
+      <x:c r="Q38" s="16" t="s"/>
+      <x:c r="R38" s="16" t="s"/>
     </x:row>
     <x:row r="39" spans="1:146">
       <x:c r="B39" s="14" t="s">
@@ -2749,7 +2991,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D39" s="15" t="n">
-        <x:v>1067112.15372916</x:v>
+        <x:v>631676.706874999</x:v>
       </x:c>
       <x:c r="E39" s="16" t="s"/>
       <x:c r="F39" s="16" t="s"/>
@@ -2763,6 +3005,8 @@
       <x:c r="N39" s="16" t="s"/>
       <x:c r="O39" s="16" t="s"/>
       <x:c r="P39" s="16" t="s"/>
+      <x:c r="Q39" s="16" t="s"/>
+      <x:c r="R39" s="16" t="s"/>
     </x:row>
     <x:row r="40" spans="1:146">
       <x:c r="B40" s="14" t="s">
@@ -2772,7 +3016,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D40" s="15" t="n">
-        <x:v>162633.996833333</x:v>
+        <x:v>317308.654583334</x:v>
       </x:c>
       <x:c r="E40" s="16" t="s"/>
       <x:c r="F40" s="16" t="s"/>
@@ -2786,6 +3030,8 @@
       <x:c r="N40" s="16" t="s"/>
       <x:c r="O40" s="16" t="s"/>
       <x:c r="P40" s="16" t="s"/>
+      <x:c r="Q40" s="16" t="s"/>
+      <x:c r="R40" s="16" t="s"/>
     </x:row>
     <x:row r="41" spans="1:146">
       <x:c r="B41" s="14" t="s">
@@ -2795,7 +3041,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D41" s="15" t="n">
-        <x:v>91289.225375</x:v>
+        <x:v>353585.801208333</x:v>
       </x:c>
       <x:c r="E41" s="16" t="s"/>
       <x:c r="F41" s="16" t="s"/>
@@ -2809,6 +3055,8 @@
       <x:c r="N41" s="16" t="s"/>
       <x:c r="O41" s="16" t="s"/>
       <x:c r="P41" s="16" t="s"/>
+      <x:c r="Q41" s="16" t="s"/>
+      <x:c r="R41" s="16" t="s"/>
     </x:row>
     <x:row r="42" spans="1:146">
       <x:c r="B42" s="14" t="s">
@@ -2818,7 +3066,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D42" s="15" t="n">
-        <x:v>157914.116541667</x:v>
+        <x:v>1067112.15372916</x:v>
       </x:c>
       <x:c r="E42" s="16" t="s"/>
       <x:c r="F42" s="16" t="s"/>
@@ -2832,6 +3080,8 @@
       <x:c r="N42" s="16" t="s"/>
       <x:c r="O42" s="16" t="s"/>
       <x:c r="P42" s="16" t="s"/>
+      <x:c r="Q42" s="16" t="s"/>
+      <x:c r="R42" s="16" t="s"/>
     </x:row>
     <x:row r="43" spans="1:146">
       <x:c r="B43" s="14" t="s">
@@ -2841,7 +3091,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D43" s="15" t="n">
-        <x:v>137432.522375</x:v>
+        <x:v>162633.996833333</x:v>
       </x:c>
       <x:c r="E43" s="16" t="s"/>
       <x:c r="F43" s="16" t="s"/>
@@ -2855,6 +3105,8 @@
       <x:c r="N43" s="16" t="s"/>
       <x:c r="O43" s="16" t="s"/>
       <x:c r="P43" s="16" t="s"/>
+      <x:c r="Q43" s="16" t="s"/>
+      <x:c r="R43" s="16" t="s"/>
     </x:row>
     <x:row r="44" spans="1:146">
       <x:c r="B44" s="14" t="s">
@@ -2864,7 +3116,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D44" s="15" t="n">
-        <x:v>438092.034166668</x:v>
+        <x:v>91289.225375</x:v>
       </x:c>
       <x:c r="E44" s="16" t="s"/>
       <x:c r="F44" s="16" t="s"/>
@@ -2878,6 +3130,8 @@
       <x:c r="N44" s="16" t="s"/>
       <x:c r="O44" s="16" t="s"/>
       <x:c r="P44" s="16" t="s"/>
+      <x:c r="Q44" s="16" t="s"/>
+      <x:c r="R44" s="16" t="s"/>
     </x:row>
     <x:row r="45" spans="1:146">
       <x:c r="B45" s="14" t="s">
@@ -2887,7 +3141,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D45" s="15" t="n">
-        <x:v>79373.2417499999</x:v>
+        <x:v>157914.116541667</x:v>
       </x:c>
       <x:c r="E45" s="16" t="s"/>
       <x:c r="F45" s="16" t="s"/>
@@ -2901,6 +3155,8 @@
       <x:c r="N45" s="16" t="s"/>
       <x:c r="O45" s="16" t="s"/>
       <x:c r="P45" s="16" t="s"/>
+      <x:c r="Q45" s="16" t="s"/>
+      <x:c r="R45" s="16" t="s"/>
     </x:row>
     <x:row r="46" spans="1:146">
       <x:c r="B46" s="14" t="s">
@@ -2910,7 +3166,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D46" s="15" t="n">
-        <x:v>276933.927083333</x:v>
+        <x:v>137432.522375</x:v>
       </x:c>
       <x:c r="E46" s="16" t="s"/>
       <x:c r="F46" s="16" t="s"/>
@@ -2924,6 +3180,8 @@
       <x:c r="N46" s="16" t="s"/>
       <x:c r="O46" s="16" t="s"/>
       <x:c r="P46" s="16" t="s"/>
+      <x:c r="Q46" s="16" t="s"/>
+      <x:c r="R46" s="16" t="s"/>
     </x:row>
     <x:row r="47" spans="1:146">
       <x:c r="B47" s="14" t="s">
@@ -2933,7 +3191,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D47" s="15" t="n">
-        <x:v>565644.0195</x:v>
+        <x:v>438092.034166668</x:v>
       </x:c>
       <x:c r="E47" s="16" t="s"/>
       <x:c r="F47" s="16" t="s"/>
@@ -2947,6 +3205,8 @@
       <x:c r="N47" s="16" t="s"/>
       <x:c r="O47" s="16" t="s"/>
       <x:c r="P47" s="16" t="s"/>
+      <x:c r="Q47" s="16" t="s"/>
+      <x:c r="R47" s="16" t="s"/>
     </x:row>
     <x:row r="48" spans="1:146">
       <x:c r="B48" s="14" t="s">
@@ -2956,7 +3216,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D48" s="15" t="n">
-        <x:v>551678.881416666</x:v>
+        <x:v>79373.2417499999</x:v>
       </x:c>
       <x:c r="E48" s="16" t="s"/>
       <x:c r="F48" s="16" t="s"/>
@@ -2970,6 +3230,8 @@
       <x:c r="N48" s="16" t="s"/>
       <x:c r="O48" s="16" t="s"/>
       <x:c r="P48" s="16" t="s"/>
+      <x:c r="Q48" s="16" t="s"/>
+      <x:c r="R48" s="16" t="s"/>
     </x:row>
     <x:row r="49" spans="1:146">
       <x:c r="B49" s="14" t="s">
@@ -2979,7 +3241,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D49" s="15" t="n">
-        <x:v>381204.857229167</x:v>
+        <x:v>276933.927083333</x:v>
       </x:c>
       <x:c r="E49" s="16" t="s"/>
       <x:c r="F49" s="16" t="s"/>
@@ -2993,6 +3255,8 @@
       <x:c r="N49" s="16" t="s"/>
       <x:c r="O49" s="16" t="s"/>
       <x:c r="P49" s="16" t="s"/>
+      <x:c r="Q49" s="16" t="s"/>
+      <x:c r="R49" s="16" t="s"/>
     </x:row>
     <x:row r="50" spans="1:146">
       <x:c r="B50" s="14" t="s">
@@ -3002,7 +3266,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D50" s="15" t="n">
-        <x:v>221313.053</x:v>
+        <x:v>565644.0195</x:v>
       </x:c>
       <x:c r="E50" s="16" t="s"/>
       <x:c r="F50" s="16" t="s"/>
@@ -3016,6 +3280,8 @@
       <x:c r="N50" s="16" t="s"/>
       <x:c r="O50" s="16" t="s"/>
       <x:c r="P50" s="16" t="s"/>
+      <x:c r="Q50" s="16" t="s"/>
+      <x:c r="R50" s="16" t="s"/>
     </x:row>
     <x:row r="51" spans="1:146">
       <x:c r="B51" s="14" t="s">
@@ -3025,7 +3291,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D51" s="15" t="n">
-        <x:v>466118.504041667</x:v>
+        <x:v>551678.881416666</x:v>
       </x:c>
       <x:c r="E51" s="16" t="s"/>
       <x:c r="F51" s="16" t="s"/>
@@ -3039,6 +3305,8 @@
       <x:c r="N51" s="16" t="s"/>
       <x:c r="O51" s="16" t="s"/>
       <x:c r="P51" s="16" t="s"/>
+      <x:c r="Q51" s="16" t="s"/>
+      <x:c r="R51" s="16" t="s"/>
     </x:row>
     <x:row r="52" spans="1:146">
       <x:c r="B52" s="14" t="s">
@@ -3048,7 +3316,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D52" s="15" t="n">
-        <x:v>379147.3695625</x:v>
+        <x:v>381204.857229167</x:v>
       </x:c>
       <x:c r="E52" s="16" t="s"/>
       <x:c r="F52" s="16" t="s"/>
@@ -3062,6 +3330,8 @@
       <x:c r="N52" s="16" t="s"/>
       <x:c r="O52" s="16" t="s"/>
       <x:c r="P52" s="16" t="s"/>
+      <x:c r="Q52" s="16" t="s"/>
+      <x:c r="R52" s="16" t="s"/>
     </x:row>
     <x:row r="53" spans="1:146">
       <x:c r="B53" s="14" t="s">
@@ -3071,7 +3341,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D53" s="15" t="n">
-        <x:v>496686.509791665</x:v>
+        <x:v>221313.053</x:v>
       </x:c>
       <x:c r="E53" s="16" t="s"/>
       <x:c r="F53" s="16" t="s"/>
@@ -3085,6 +3355,8 @@
       <x:c r="N53" s="16" t="s"/>
       <x:c r="O53" s="16" t="s"/>
       <x:c r="P53" s="16" t="s"/>
+      <x:c r="Q53" s="16" t="s"/>
+      <x:c r="R53" s="16" t="s"/>
     </x:row>
     <x:row r="54" spans="1:146">
       <x:c r="B54" s="14" t="s">
@@ -3094,7 +3366,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D54" s="15" t="n">
-        <x:v>1195697.45891666</x:v>
+        <x:v>466118.504041667</x:v>
       </x:c>
       <x:c r="E54" s="16" t="s"/>
       <x:c r="F54" s="16" t="s"/>
@@ -3108,6 +3380,8 @@
       <x:c r="N54" s="16" t="s"/>
       <x:c r="O54" s="16" t="s"/>
       <x:c r="P54" s="16" t="s"/>
+      <x:c r="Q54" s="16" t="s"/>
+      <x:c r="R54" s="16" t="s"/>
     </x:row>
     <x:row r="55" spans="1:146">
       <x:c r="B55" s="14" t="s">
@@ -3117,7 +3391,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D55" s="15" t="n">
-        <x:v>82809.1177916666</x:v>
+        <x:v>379147.3695625</x:v>
       </x:c>
       <x:c r="E55" s="16" t="s"/>
       <x:c r="F55" s="16" t="s"/>
@@ -3131,6 +3405,8 @@
       <x:c r="N55" s="16" t="s"/>
       <x:c r="O55" s="16" t="s"/>
       <x:c r="P55" s="16" t="s"/>
+      <x:c r="Q55" s="16" t="s"/>
+      <x:c r="R55" s="16" t="s"/>
     </x:row>
     <x:row r="56" spans="1:146">
       <x:c r="B56" s="14" t="s">
@@ -3140,7 +3416,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D56" s="15" t="n">
-        <x:v>104423.351625</x:v>
+        <x:v>496686.509791665</x:v>
       </x:c>
       <x:c r="E56" s="16" t="s"/>
       <x:c r="F56" s="16" t="s"/>
@@ -3154,6 +3430,8 @@
       <x:c r="N56" s="16" t="s"/>
       <x:c r="O56" s="16" t="s"/>
       <x:c r="P56" s="16" t="s"/>
+      <x:c r="Q56" s="16" t="s"/>
+      <x:c r="R56" s="16" t="s"/>
     </x:row>
     <x:row r="57" spans="1:146">
       <x:c r="B57" s="14" t="s">
@@ -3163,7 +3441,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D57" s="15" t="n">
-        <x:v>423562.201041666</x:v>
+        <x:v>1195697.45891666</x:v>
       </x:c>
       <x:c r="E57" s="16" t="s"/>
       <x:c r="F57" s="16" t="s"/>
@@ -3177,6 +3455,8 @@
       <x:c r="N57" s="16" t="s"/>
       <x:c r="O57" s="16" t="s"/>
       <x:c r="P57" s="16" t="s"/>
+      <x:c r="Q57" s="16" t="s"/>
+      <x:c r="R57" s="16" t="s"/>
     </x:row>
     <x:row r="58" spans="1:146">
       <x:c r="B58" s="14" t="s">
@@ -3186,7 +3466,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D58" s="15" t="n">
-        <x:v>97514.8692916669</x:v>
+        <x:v>82809.1177916666</x:v>
       </x:c>
       <x:c r="E58" s="16" t="s"/>
       <x:c r="F58" s="16" t="s"/>
@@ -3200,6 +3480,8 @@
       <x:c r="N58" s="16" t="s"/>
       <x:c r="O58" s="16" t="s"/>
       <x:c r="P58" s="16" t="s"/>
+      <x:c r="Q58" s="16" t="s"/>
+      <x:c r="R58" s="16" t="s"/>
     </x:row>
     <x:row r="59" spans="1:146">
       <x:c r="B59" s="14" t="s">
@@ -3209,7 +3491,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D59" s="15" t="n">
-        <x:v>73293.474375</x:v>
+        <x:v>104423.351625</x:v>
       </x:c>
       <x:c r="E59" s="16" t="s"/>
       <x:c r="F59" s="16" t="s"/>
@@ -3223,6 +3505,8 @@
       <x:c r="N59" s="16" t="s"/>
       <x:c r="O59" s="16" t="s"/>
       <x:c r="P59" s="16" t="s"/>
+      <x:c r="Q59" s="16" t="s"/>
+      <x:c r="R59" s="16" t="s"/>
     </x:row>
     <x:row r="60" spans="1:146">
       <x:c r="B60" s="14" t="s">
@@ -3232,7 +3516,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D60" s="15" t="n">
-        <x:v>263849.714750001</x:v>
+        <x:v>423562.201041666</x:v>
       </x:c>
       <x:c r="E60" s="16" t="s"/>
       <x:c r="F60" s="16" t="s"/>
@@ -3246,6 +3530,8 @@
       <x:c r="N60" s="16" t="s"/>
       <x:c r="O60" s="16" t="s"/>
       <x:c r="P60" s="16" t="s"/>
+      <x:c r="Q60" s="16" t="s"/>
+      <x:c r="R60" s="16" t="s"/>
     </x:row>
     <x:row r="61" spans="1:146">
       <x:c r="B61" s="14" t="s">
@@ -3255,7 +3541,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D61" s="15" t="n">
-        <x:v>207949.075041667</x:v>
+        <x:v>97514.8692916669</x:v>
       </x:c>
       <x:c r="E61" s="16" t="s"/>
       <x:c r="F61" s="16" t="s"/>
@@ -3269,6 +3555,8 @@
       <x:c r="N61" s="16" t="s"/>
       <x:c r="O61" s="16" t="s"/>
       <x:c r="P61" s="16" t="s"/>
+      <x:c r="Q61" s="16" t="s"/>
+      <x:c r="R61" s="16" t="s"/>
     </x:row>
     <x:row r="62" spans="1:146">
       <x:c r="B62" s="14" t="s">
@@ -3278,7 +3566,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D62" s="15" t="n">
-        <x:v>73351.5996666667</x:v>
+        <x:v>73293.474375</x:v>
       </x:c>
       <x:c r="E62" s="16" t="s"/>
       <x:c r="F62" s="16" t="s"/>
@@ -3292,6 +3580,8 @@
       <x:c r="N62" s="16" t="s"/>
       <x:c r="O62" s="16" t="s"/>
       <x:c r="P62" s="16" t="s"/>
+      <x:c r="Q62" s="16" t="s"/>
+      <x:c r="R62" s="16" t="s"/>
     </x:row>
     <x:row r="63" spans="1:146">
       <x:c r="B63" s="14" t="s">
@@ -3301,7 +3591,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D63" s="15" t="n">
-        <x:v>103291.585791667</x:v>
+        <x:v>263849.714750001</x:v>
       </x:c>
       <x:c r="E63" s="16" t="s"/>
       <x:c r="F63" s="16" t="s"/>
@@ -3315,6 +3605,8 @@
       <x:c r="N63" s="16" t="s"/>
       <x:c r="O63" s="16" t="s"/>
       <x:c r="P63" s="16" t="s"/>
+      <x:c r="Q63" s="16" t="s"/>
+      <x:c r="R63" s="16" t="s"/>
     </x:row>
     <x:row r="64" spans="1:146">
       <x:c r="B64" s="14" t="s">
@@ -3324,7 +3616,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D64" s="15" t="n">
-        <x:v>336080.752333333</x:v>
+        <x:v>207949.075041667</x:v>
       </x:c>
       <x:c r="E64" s="16" t="s"/>
       <x:c r="F64" s="16" t="s"/>
@@ -3338,6 +3630,8 @@
       <x:c r="N64" s="16" t="s"/>
       <x:c r="O64" s="16" t="s"/>
       <x:c r="P64" s="16" t="s"/>
+      <x:c r="Q64" s="16" t="s"/>
+      <x:c r="R64" s="16" t="s"/>
     </x:row>
     <x:row r="65" spans="1:146">
       <x:c r="B65" s="14" t="s">
@@ -3347,7 +3641,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D65" s="15" t="n">
-        <x:v>184198.940958333</x:v>
+        <x:v>73351.5996666667</x:v>
       </x:c>
       <x:c r="E65" s="16" t="s"/>
       <x:c r="F65" s="16" t="s"/>
@@ -3361,6 +3655,8 @@
       <x:c r="N65" s="16" t="s"/>
       <x:c r="O65" s="16" t="s"/>
       <x:c r="P65" s="16" t="s"/>
+      <x:c r="Q65" s="16" t="s"/>
+      <x:c r="R65" s="16" t="s"/>
     </x:row>
     <x:row r="66" spans="1:146">
       <x:c r="B66" s="14" t="s">
@@ -3370,7 +3666,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D66" s="15" t="n">
-        <x:v>368521.6765625</x:v>
+        <x:v>103291.585791667</x:v>
       </x:c>
       <x:c r="E66" s="16" t="s"/>
       <x:c r="F66" s="16" t="s"/>
@@ -3384,6 +3680,8 @@
       <x:c r="N66" s="16" t="s"/>
       <x:c r="O66" s="16" t="s"/>
       <x:c r="P66" s="16" t="s"/>
+      <x:c r="Q66" s="16" t="s"/>
+      <x:c r="R66" s="16" t="s"/>
     </x:row>
     <x:row r="67" spans="1:146">
       <x:c r="B67" s="14" t="s">
@@ -3393,7 +3691,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D67" s="15" t="n">
-        <x:v>231914.498249999</x:v>
+        <x:v>336080.752333333</x:v>
       </x:c>
       <x:c r="E67" s="16" t="s"/>
       <x:c r="F67" s="16" t="s"/>
@@ -3407,6 +3705,8 @@
       <x:c r="N67" s="16" t="s"/>
       <x:c r="O67" s="16" t="s"/>
       <x:c r="P67" s="16" t="s"/>
+      <x:c r="Q67" s="16" t="s"/>
+      <x:c r="R67" s="16" t="s"/>
     </x:row>
     <x:row r="68" spans="1:146">
       <x:c r="B68" s="14" t="s">
@@ -3416,7 +3716,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D68" s="15" t="n">
-        <x:v>408597.138458333</x:v>
+        <x:v>184198.940958333</x:v>
       </x:c>
       <x:c r="E68" s="16" t="s"/>
       <x:c r="F68" s="16" t="s"/>
@@ -3430,6 +3730,8 @@
       <x:c r="N68" s="16" t="s"/>
       <x:c r="O68" s="16" t="s"/>
       <x:c r="P68" s="16" t="s"/>
+      <x:c r="Q68" s="16" t="s"/>
+      <x:c r="R68" s="16" t="s"/>
     </x:row>
     <x:row r="69" spans="1:146">
       <x:c r="B69" s="14" t="s">
@@ -3439,7 +3741,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D69" s="15" t="n">
-        <x:v>296445.721833332</x:v>
+        <x:v>368521.6765625</x:v>
       </x:c>
       <x:c r="E69" s="16" t="s"/>
       <x:c r="F69" s="16" t="s"/>
@@ -3453,6 +3755,8 @@
       <x:c r="N69" s="16" t="s"/>
       <x:c r="O69" s="16" t="s"/>
       <x:c r="P69" s="16" t="s"/>
+      <x:c r="Q69" s="16" t="s"/>
+      <x:c r="R69" s="16" t="s"/>
     </x:row>
     <x:row r="70" spans="1:146">
       <x:c r="B70" s="14" t="s">
@@ -3462,7 +3766,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D70" s="15" t="n">
-        <x:v>309135.359312496</x:v>
+        <x:v>231914.498249999</x:v>
       </x:c>
       <x:c r="E70" s="16" t="s"/>
       <x:c r="F70" s="16" t="s"/>
@@ -3476,6 +3780,8 @@
       <x:c r="N70" s="16" t="s"/>
       <x:c r="O70" s="16" t="s"/>
       <x:c r="P70" s="16" t="s"/>
+      <x:c r="Q70" s="16" t="s"/>
+      <x:c r="R70" s="16" t="s"/>
     </x:row>
     <x:row r="71" spans="1:146">
       <x:c r="B71" s="14" t="s">
@@ -3485,7 +3791,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D71" s="15" t="n">
-        <x:v>19108.8133333333</x:v>
+        <x:v>408597.138458333</x:v>
       </x:c>
       <x:c r="E71" s="16" t="s"/>
       <x:c r="F71" s="16" t="s"/>
@@ -3499,6 +3805,8 @@
       <x:c r="N71" s="16" t="s"/>
       <x:c r="O71" s="16" t="s"/>
       <x:c r="P71" s="16" t="s"/>
+      <x:c r="Q71" s="16" t="s"/>
+      <x:c r="R71" s="16" t="s"/>
     </x:row>
     <x:row r="72" spans="1:146">
       <x:c r="B72" s="14" t="s">
@@ -3508,7 +3816,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D72" s="15" t="n">
-        <x:v>277095.2395</x:v>
+        <x:v>296445.721833332</x:v>
       </x:c>
       <x:c r="E72" s="16" t="s"/>
       <x:c r="F72" s="16" t="s"/>
@@ -3522,6 +3830,8 @@
       <x:c r="N72" s="16" t="s"/>
       <x:c r="O72" s="16" t="s"/>
       <x:c r="P72" s="16" t="s"/>
+      <x:c r="Q72" s="16" t="s"/>
+      <x:c r="R72" s="16" t="s"/>
     </x:row>
     <x:row r="73" spans="1:146">
       <x:c r="B73" s="14" t="s">
@@ -3531,7 +3841,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D73" s="15" t="n">
-        <x:v>104958.7999375</x:v>
+        <x:v>309135.359312496</x:v>
       </x:c>
       <x:c r="E73" s="16" t="s"/>
       <x:c r="F73" s="16" t="s"/>
@@ -3545,6 +3855,8 @@
       <x:c r="N73" s="16" t="s"/>
       <x:c r="O73" s="16" t="s"/>
       <x:c r="P73" s="16" t="s"/>
+      <x:c r="Q73" s="16" t="s"/>
+      <x:c r="R73" s="16" t="s"/>
     </x:row>
     <x:row r="74" spans="1:146">
       <x:c r="B74" s="14" t="s">
@@ -3554,7 +3866,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D74" s="15" t="n">
-        <x:v>7502.4725</x:v>
+        <x:v>19108.8133333333</x:v>
       </x:c>
       <x:c r="E74" s="16" t="s"/>
       <x:c r="F74" s="16" t="s"/>
@@ -3565,11 +3877,11 @@
       <x:c r="K74" s="16" t="s"/>
       <x:c r="L74" s="16" t="s"/>
       <x:c r="M74" s="16" t="s"/>
-      <x:c r="N74" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="N74" s="16" t="s"/>
       <x:c r="O74" s="16" t="s"/>
       <x:c r="P74" s="16" t="s"/>
+      <x:c r="Q74" s="16" t="s"/>
+      <x:c r="R74" s="16" t="s"/>
     </x:row>
     <x:row r="75" spans="1:146">
       <x:c r="B75" s="14" t="s">
@@ -3579,7 +3891,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D75" s="15" t="n">
-        <x:v>142055.3860625</x:v>
+        <x:v>277095.2395</x:v>
       </x:c>
       <x:c r="E75" s="16" t="s"/>
       <x:c r="F75" s="16" t="s"/>
@@ -3592,9 +3904,9 @@
       <x:c r="M75" s="16" t="s"/>
       <x:c r="N75" s="16" t="s"/>
       <x:c r="O75" s="16" t="s"/>
-      <x:c r="P75" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="P75" s="16" t="s"/>
+      <x:c r="Q75" s="16" t="s"/>
+      <x:c r="R75" s="16" t="s"/>
     </x:row>
     <x:row r="76" spans="1:146">
       <x:c r="B76" s="14" t="s">
@@ -3604,7 +3916,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D76" s="15" t="n">
-        <x:v>182154.664458333</x:v>
+        <x:v>135509.104729166</x:v>
       </x:c>
       <x:c r="E76" s="16" t="s"/>
       <x:c r="F76" s="16" t="s"/>
@@ -3617,9 +3929,38 @@
       <x:c r="M76" s="16" t="s"/>
       <x:c r="N76" s="16" t="s"/>
       <x:c r="O76" s="16" t="s"/>
-      <x:c r="P76" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="P76" s="16" t="s"/>
+      <x:c r="Q76" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R76" s="16" t="s"/>
+    </x:row>
+    <x:row r="77" spans="1:146">
+      <x:c r="B77" s="14" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C77" s="15" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D77" s="15" t="n">
+        <x:v>7502.4725</x:v>
+      </x:c>
+      <x:c r="E77" s="16" t="s"/>
+      <x:c r="F77" s="16" t="s"/>
+      <x:c r="G77" s="16" t="s"/>
+      <x:c r="H77" s="16" t="s"/>
+      <x:c r="I77" s="16" t="s"/>
+      <x:c r="J77" s="16" t="s"/>
+      <x:c r="K77" s="16" t="s"/>
+      <x:c r="L77" s="16" t="s"/>
+      <x:c r="M77" s="16" t="s"/>
+      <x:c r="N77" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O77" s="16" t="s"/>
+      <x:c r="P77" s="16" t="s"/>
+      <x:c r="Q77" s="16" t="s"/>
+      <x:c r="R77" s="16" t="s"/>
     </x:row>
   </x:sheetData>
   <x:dataConsolidate/>
@@ -3639,7 +3980,7 @@
   <x:dimension ref="A1:D3"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <x:selection activeCell="C89" sqref="C89"/>
+      <x:selection activeCell="C90" sqref="C90"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3647,14 +3988,11 @@
     <x:col min="1" max="1" width="9.285156" style="0" hidden="1" customWidth="1"/>
     <x:col min="2" max="2" width="20.130625" style="0" bestFit="1" customWidth="1"/>
     <x:col min="3" max="3" width="20.410625" style="0" bestFit="1" customWidth="1"/>
-    <x:col min="4" max="5" width="15.980625" style="0" customWidth="1"/>
-    <x:col min="6" max="7" width="17.270625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="15.980625" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="17.270625" style="0" customWidth="1"/>
-    <x:col min="10" max="12" width="15.980625" style="0" customWidth="1"/>
-    <x:col min="13" max="13" width="17.270625" style="0" customWidth="1"/>
-    <x:col min="14" max="15" width="15.980625" style="0" customWidth="1"/>
-    <x:col min="16" max="17" width="13.270625" style="0" customWidth="1"/>
+    <x:col min="4" max="6" width="15.980625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="17.270625" style="0" customWidth="1"/>
+    <x:col min="8" max="15" width="15.980625" style="0" customWidth="1"/>
+    <x:col min="16" max="16" width="17.270625" style="0" customWidth="1"/>
+    <x:col min="17" max="17" width="15.980625" style="0" customWidth="1"/>
     <x:col min="18" max="23" width="8" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
@@ -3663,7 +4001,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C1" s="12" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D1" s="13">
         <x:v>44395</x:v>
@@ -3710,152 +4048,152 @@
     </x:row>
     <x:row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <x:c r="B2" s="14" t="s">
-        <x:v>16</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C2" s="18" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D2" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E2" s="19" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="F2" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="G2" s="19" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="H2" s="19" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="I2" s="19" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="J2" s="19" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="K2" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L2" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M2" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N2" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O2" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P2" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q2" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <x:c r="B3" s="14" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C3" s="18" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D3" s="19" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E3" s="19" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="F3" s="19" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="G3" s="19" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="H3" s="19" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="I3" s="19" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="J3" s="19" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="K3" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="L3" s="19" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="M3" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N3" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O3" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P3" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q3" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:36">
       <x:c r="B4" s="14" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C4" s="18" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D4" s="19" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E4" s="19" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F4" s="19" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G4" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H4" s="19" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="I4" s="19" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="J4" s="19" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="K4" s="19" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="L4" s="19" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="M4" s="19" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="N4" s="19" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="O4" s="19" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="P4" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="Q4" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:36">
@@ -3863,1081 +4201,1081 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C5" s="18" t="s">
-        <x:v>110</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="D5" s="19" t="s">
-        <x:v>111</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E5" s="19" t="s">
-        <x:v>112</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="F5" s="19" t="s">
-        <x:v>113</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="G5" s="19" t="s">
-        <x:v>114</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H5" s="19" t="s">
-        <x:v>115</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I5" s="19" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="J5" s="19" t="s">
         <x:v>116</x:v>
       </x:c>
-      <x:c r="J5" s="19" t="s">
+      <x:c r="K5" s="19" t="s">
         <x:v>117</x:v>
       </x:c>
-      <x:c r="K5" s="19" t="s">
+      <x:c r="L5" s="19" t="s">
         <x:v>118</x:v>
       </x:c>
-      <x:c r="L5" s="19" t="s">
+      <x:c r="M5" s="19" t="s">
         <x:v>119</x:v>
       </x:c>
-      <x:c r="M5" s="19" t="s">
-        <x:v>120</x:v>
-      </x:c>
       <x:c r="N5" s="19" t="s">
-        <x:v>121</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O5" s="19" t="s">
-        <x:v>122</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P5" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q5" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:36">
       <x:c r="B6" s="14" t="s">
-        <x:v>4</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C6" s="18" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D6" s="19" t="s">
-        <x:v>124</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E6" s="19" t="s">
-        <x:v>125</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F6" s="19" t="s">
-        <x:v>126</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G6" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H6" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I6" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="J6" s="19" t="s">
-        <x:v>127</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K6" s="19" t="s">
-        <x:v>128</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L6" s="19" t="s">
-        <x:v>129</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M6" s="19" t="s">
-        <x:v>130</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N6" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O6" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P6" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q6" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:36">
       <x:c r="B7" s="14" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C7" s="18" t="s">
-        <x:v>131</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D7" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E7" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F7" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G7" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H7" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I7" s="19" t="s">
-        <x:v>131</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J7" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K7" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L7" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M7" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N7" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O7" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="P7" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="Q7" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:36">
       <x:c r="B8" s="14" t="s">
-        <x:v>33</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C8" s="18" t="s">
-        <x:v>132</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D8" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E8" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F8" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G8" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H8" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I8" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J8" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K8" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L8" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M8" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="N8" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="O8" s="19" t="s">
-        <x:v>132</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="P8" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q8" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:36">
       <x:c r="B9" s="14" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C9" s="18" t="s">
-        <x:v>133</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="D9" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="E9" s="19" t="s">
-        <x:v>135</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="F9" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G9" s="19" t="s">
-        <x:v>136</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="H9" s="19" t="s">
-        <x:v>137</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="I9" s="19" t="s">
-        <x:v>138</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="J9" s="19" t="s">
-        <x:v>139</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="K9" s="19" t="s">
-        <x:v>140</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="L9" s="19" t="s">
-        <x:v>141</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="M9" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="N9" s="19" t="s">
-        <x:v>142</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="O9" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="P9" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="Q9" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:36">
       <x:c r="B10" s="14" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C10" s="18" t="s">
-        <x:v>143</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D10" s="19" t="s">
-        <x:v>144</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E10" s="19" t="s">
-        <x:v>145</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F10" s="19" t="s">
-        <x:v>146</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="G10" s="19" t="s">
-        <x:v>147</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="H10" s="19" t="s">
-        <x:v>148</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="I10" s="19" t="s">
-        <x:v>149</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="J10" s="19" t="s">
-        <x:v>150</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="K10" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="L10" s="19" t="s">
-        <x:v>151</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="M10" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N10" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O10" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="P10" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="Q10" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:36">
       <x:c r="B11" s="14" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="18" t="s">
-        <x:v>152</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D11" s="19" t="s">
-        <x:v>153</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="E11" s="19" t="s">
-        <x:v>154</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="F11" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G11" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H11" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I11" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J11" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K11" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L11" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M11" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N11" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O11" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P11" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q11" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:36">
       <x:c r="B12" s="14" t="s">
-        <x:v>5</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C12" s="18" t="s">
-        <x:v>155</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="D12" s="19" t="s">
-        <x:v>156</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E12" s="19" t="s">
-        <x:v>157</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F12" s="19" t="s">
-        <x:v>158</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="G12" s="19" t="s">
-        <x:v>159</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="H12" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="I12" s="19" t="s">
-        <x:v>160</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J12" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K12" s="19" t="s">
-        <x:v>161</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L12" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M12" s="19" t="s">
-        <x:v>162</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N12" s="19" t="s">
-        <x:v>163</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O12" s="19" t="s">
-        <x:v>164</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P12" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q12" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:36">
       <x:c r="B13" s="14" t="s">
-        <x:v>22</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C13" s="18" t="s">
-        <x:v>165</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="D13" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="E13" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="F13" s="19" t="s">
-        <x:v>166</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="G13" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="H13" s="19" t="s">
-        <x:v>167</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="I13" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="J13" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="K13" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="L13" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="M13" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="N13" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="O13" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="P13" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="Q13" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>160</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:36">
       <x:c r="B14" s="14" t="s">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C14" s="18" t="s">
-        <x:v>168</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D14" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E14" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F14" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G14" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="H14" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I14" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="J14" s="19" t="s">
-        <x:v>169</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="K14" s="19" t="s">
-        <x:v>170</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="L14" s="19" t="s">
-        <x:v>171</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="M14" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N14" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O14" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P14" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q14" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:36">
       <x:c r="B15" s="14" t="s">
-        <x:v>27</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C15" s="18" t="s">
-        <x:v>172</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="D15" s="19" t="s">
-        <x:v>172</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="E15" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F15" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G15" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H15" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I15" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J15" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K15" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L15" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M15" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N15" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O15" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P15" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q15" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:36">
       <x:c r="B16" s="14" t="s">
-        <x:v>10</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C16" s="18" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="D16" s="19" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="E16" s="19" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="F16" s="19" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="G16" s="19" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="H16" s="19" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="I16" s="19" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="J16" s="19" t="s">
         <x:v>173</x:v>
       </x:c>
-      <x:c r="D16" s="19" t="s">
+      <x:c r="K16" s="19" t="s">
         <x:v>174</x:v>
       </x:c>
-      <x:c r="E16" s="19" t="s">
+      <x:c r="L16" s="19" t="s">
         <x:v>175</x:v>
       </x:c>
-      <x:c r="F16" s="19" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="G16" s="19" t="s">
+      <x:c r="M16" s="19" t="s">
         <x:v>176</x:v>
       </x:c>
-      <x:c r="H16" s="19" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="I16" s="19" t="s">
+      <x:c r="N16" s="19" t="s">
         <x:v>177</x:v>
       </x:c>
-      <x:c r="J16" s="19" t="s">
+      <x:c r="O16" s="19" t="s">
         <x:v>178</x:v>
       </x:c>
-      <x:c r="K16" s="19" t="s">
-        <x:v>179</x:v>
-      </x:c>
-      <x:c r="L16" s="19" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="M16" s="19" t="s">
-        <x:v>180</x:v>
-      </x:c>
-      <x:c r="N16" s="19" t="s">
-        <x:v>181</x:v>
-      </x:c>
-      <x:c r="O16" s="19" t="s">
-        <x:v>87</x:v>
-      </x:c>
       <x:c r="P16" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="Q16" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:36">
       <x:c r="B17" s="14" t="s">
-        <x:v>21</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C17" s="18" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="D17" s="19" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="E17" s="19" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="F17" s="19" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="G17" s="19" t="s">
         <x:v>182</x:v>
       </x:c>
-      <x:c r="D17" s="19" t="s">
+      <x:c r="H17" s="19" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="I17" s="19" t="s">
         <x:v>183</x:v>
       </x:c>
-      <x:c r="E17" s="19" t="s">
+      <x:c r="J17" s="19" t="s">
         <x:v>184</x:v>
       </x:c>
-      <x:c r="F17" s="19" t="s">
+      <x:c r="K17" s="19" t="s">
         <x:v>185</x:v>
       </x:c>
-      <x:c r="G17" s="19" t="s">
+      <x:c r="L17" s="19" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="M17" s="19" t="s">
         <x:v>186</x:v>
       </x:c>
-      <x:c r="H17" s="19" t="s">
+      <x:c r="N17" s="19" t="s">
         <x:v>187</x:v>
       </x:c>
-      <x:c r="I17" s="19" t="s">
-        <x:v>188</x:v>
-      </x:c>
-      <x:c r="J17" s="19" t="s">
-        <x:v>189</x:v>
-      </x:c>
-      <x:c r="K17" s="19" t="s">
-        <x:v>190</x:v>
-      </x:c>
-      <x:c r="L17" s="19" t="s">
-        <x:v>191</x:v>
-      </x:c>
-      <x:c r="M17" s="19" t="s">
-        <x:v>192</x:v>
-      </x:c>
-      <x:c r="N17" s="19" t="s">
-        <x:v>193</x:v>
-      </x:c>
       <x:c r="O17" s="19" t="s">
-        <x:v>194</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P17" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q17" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:36">
       <x:c r="B18" s="14" t="s">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C18" s="18" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="D18" s="19" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E18" s="19" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="F18" s="19" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="G18" s="19" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="H18" s="19" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="I18" s="19" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="J18" s="19" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="K18" s="19" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="L18" s="19" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="M18" s="19" t="s">
         <x:v>195</x:v>
       </x:c>
-      <x:c r="D18" s="19" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="E18" s="19" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="F18" s="19" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="G18" s="19" t="s">
+      <x:c r="N18" s="19" t="s">
         <x:v>196</x:v>
       </x:c>
-      <x:c r="H18" s="19" t="s">
+      <x:c r="O18" s="19" t="s">
         <x:v>197</x:v>
       </x:c>
-      <x:c r="I18" s="19" t="s">
+      <x:c r="P18" s="19" t="s">
         <x:v>198</x:v>
       </x:c>
-      <x:c r="J18" s="19" t="s">
+      <x:c r="Q18" s="19" t="s">
         <x:v>199</x:v>
-      </x:c>
-      <x:c r="K18" s="19" t="s">
-        <x:v>200</x:v>
-      </x:c>
-      <x:c r="L18" s="19" t="s">
-        <x:v>201</x:v>
-      </x:c>
-      <x:c r="M18" s="19" t="s">
-        <x:v>202</x:v>
-      </x:c>
-      <x:c r="N18" s="19" t="s">
-        <x:v>203</x:v>
-      </x:c>
-      <x:c r="O18" s="19" t="s">
-        <x:v>204</x:v>
-      </x:c>
-      <x:c r="P18" s="19" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="Q18" s="19" t="s">
-        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:36">
       <x:c r="B19" s="14" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C19" s="18" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="D19" s="19" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E19" s="19" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="F19" s="19" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="G19" s="19" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="H19" s="19" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="I19" s="19" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="J19" s="19" t="s">
         <x:v>205</x:v>
       </x:c>
-      <x:c r="D19" s="19" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="E19" s="19" t="s">
+      <x:c r="K19" s="19" t="s">
         <x:v>206</x:v>
       </x:c>
-      <x:c r="F19" s="19" t="s">
+      <x:c r="L19" s="19" t="s">
         <x:v>207</x:v>
       </x:c>
-      <x:c r="G19" s="19" t="s">
+      <x:c r="M19" s="19" t="s">
         <x:v>208</x:v>
       </x:c>
-      <x:c r="H19" s="19" t="s">
+      <x:c r="N19" s="19" t="s">
         <x:v>209</x:v>
       </x:c>
-      <x:c r="I19" s="19" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="J19" s="19" t="s">
-        <x:v>210</x:v>
-      </x:c>
-      <x:c r="K19" s="19" t="s">
-        <x:v>211</x:v>
-      </x:c>
-      <x:c r="L19" s="19" t="s">
-        <x:v>212</x:v>
-      </x:c>
-      <x:c r="M19" s="19" t="s">
-        <x:v>213</x:v>
-      </x:c>
-      <x:c r="N19" s="19" t="s">
-        <x:v>214</x:v>
-      </x:c>
       <x:c r="O19" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P19" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q19" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:36">
       <x:c r="B20" s="14" t="s">
-        <x:v>31</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C20" s="18" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="D20" s="19" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E20" s="19" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="F20" s="19" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="G20" s="19" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="H20" s="19" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="I20" s="19" t="s">
         <x:v>215</x:v>
       </x:c>
-      <x:c r="D20" s="19" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="E20" s="19" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="F20" s="19" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="G20" s="19" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="H20" s="19" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="I20" s="19" t="s">
-        <x:v>87</x:v>
-      </x:c>
       <x:c r="J20" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="K20" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="L20" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="M20" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="N20" s="19" t="s">
-        <x:v>216</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="O20" s="19" t="s">
-        <x:v>217</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="P20" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="Q20" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>223</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:36">
       <x:c r="B21" s="14" t="s">
-        <x:v>32</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C21" s="18" t="s">
-        <x:v>218</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="D21" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E21" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F21" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G21" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H21" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I21" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J21" s="19" t="s">
-        <x:v>218</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="K21" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="L21" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="M21" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N21" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O21" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P21" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q21" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:36">
       <x:c r="B22" s="14" t="s">
-        <x:v>6</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C22" s="18" t="s">
-        <x:v>219</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="D22" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="E22" s="19" t="s">
-        <x:v>220</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="F22" s="19" t="s">
-        <x:v>221</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G22" s="19" t="s">
-        <x:v>222</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="H22" s="19" t="s">
-        <x:v>223</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="I22" s="19" t="s">
-        <x:v>224</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="J22" s="19" t="s">
-        <x:v>225</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="K22" s="19" t="s">
-        <x:v>226</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="L22" s="19" t="s">
-        <x:v>227</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="M22" s="19" t="s">
-        <x:v>228</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="N22" s="19" t="s">
-        <x:v>229</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="O22" s="19" t="s">
-        <x:v>230</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="P22" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="Q22" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:36">
       <x:c r="B23" s="14" t="s">
-        <x:v>26</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C23" s="18" t="s">
-        <x:v>231</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="D23" s="19" t="s">
-        <x:v>232</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="E23" s="19" t="s">
-        <x:v>233</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="F23" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G23" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="H23" s="19" t="s">
-        <x:v>234</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="I23" s="19" t="s">
-        <x:v>235</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="J23" s="19" t="s">
-        <x:v>236</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="K23" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L23" s="19" t="s">
-        <x:v>237</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M23" s="19" t="s">
-        <x:v>238</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N23" s="19" t="s">
-        <x:v>239</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O23" s="19" t="s">
-        <x:v>240</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P23" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q23" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:36">
       <x:c r="B24" s="14" t="s">
-        <x:v>29</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C24" s="18" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="D24" s="19" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="E24" s="19" t="s">
         <x:v>241</x:v>
       </x:c>
-      <x:c r="D24" s="19" t="s">
+      <x:c r="F24" s="19" t="s">
         <x:v>242</x:v>
       </x:c>
-      <x:c r="E24" s="19" t="s">
+      <x:c r="G24" s="19" t="s">
         <x:v>243</x:v>
       </x:c>
-      <x:c r="F24" s="19" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="G24" s="19" t="s">
+      <x:c r="H24" s="19" t="s">
         <x:v>244</x:v>
       </x:c>
-      <x:c r="H24" s="19" t="s">
-        <x:v>80</x:v>
-      </x:c>
       <x:c r="I24" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="J24" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="K24" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="L24" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="M24" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="N24" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="O24" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="P24" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="Q24" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:36">
       <x:c r="B25" s="14" t="s">
-        <x:v>8</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C25" s="18" t="s">
-        <x:v>245</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="D25" s="19" t="s">
-        <x:v>170</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E25" s="19" t="s">
-        <x:v>246</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F25" s="19" t="s">
-        <x:v>247</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G25" s="19" t="s">
-        <x:v>248</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H25" s="19" t="s">
-        <x:v>249</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I25" s="19" t="s">
-        <x:v>250</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J25" s="19" t="s">
-        <x:v>251</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K25" s="19" t="s">
-        <x:v>252</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L25" s="19" t="s">
-        <x:v>253</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M25" s="19" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="N25" s="19" t="s">
         <x:v>254</x:v>
       </x:c>
-      <x:c r="N25" s="19" t="s">
+      <x:c r="O25" s="19" t="s">
         <x:v>255</x:v>
       </x:c>
-      <x:c r="O25" s="19" t="s">
+      <x:c r="P25" s="19" t="s">
         <x:v>256</x:v>
       </x:c>
-      <x:c r="P25" s="19" t="s">
-        <x:v>87</x:v>
-      </x:c>
       <x:c r="Q25" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:36">
       <x:c r="B26" s="14" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C26" s="18" t="s">
         <x:v>257</x:v>
       </x:c>
       <x:c r="D26" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E26" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F26" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G26" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H26" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I26" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J26" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K26" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L26" s="19" t="s">
         <x:v>258</x:v>
@@ -4952,283 +5290,283 @@
         <x:v>261</x:v>
       </x:c>
       <x:c r="P26" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="Q26" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>263</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:36">
       <x:c r="B27" s="14" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C27" s="18" t="s">
-        <x:v>262</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="D27" s="19" t="s">
-        <x:v>263</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="E27" s="19" t="s">
-        <x:v>264</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="F27" s="19" t="s">
-        <x:v>265</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="G27" s="19" t="s">
-        <x:v>266</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="H27" s="19" t="s">
-        <x:v>267</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="I27" s="19" t="s">
-        <x:v>268</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="J27" s="19" t="s">
-        <x:v>269</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="K27" s="19" t="s">
-        <x:v>270</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="L27" s="19" t="s">
-        <x:v>271</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="M27" s="19" t="s">
-        <x:v>272</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="N27" s="19" t="s">
-        <x:v>273</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="O27" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P27" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q27" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:36">
       <x:c r="B28" s="14" t="s">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C28" s="18" t="s">
-        <x:v>274</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="D28" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E28" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F28" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G28" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H28" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I28" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J28" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K28" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L28" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M28" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N28" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="O28" s="19" t="s">
-        <x:v>274</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="P28" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="Q28" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>279</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:36">
       <x:c r="B29" s="14" t="s">
-        <x:v>20</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C29" s="18" t="s">
-        <x:v>275</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="D29" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E29" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="F29" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G29" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="H29" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I29" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J29" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K29" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L29" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M29" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N29" s="19" t="s">
-        <x:v>276</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O29" s="19" t="s">
-        <x:v>277</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P29" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="Q29" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:36">
       <x:c r="B30" s="14" t="s">
-        <x:v>17</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C30" s="18" t="s">
-        <x:v>278</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="D30" s="19" t="s">
-        <x:v>279</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E30" s="19" t="s">
-        <x:v>280</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F30" s="19" t="s">
-        <x:v>281</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G30" s="19" t="s">
-        <x:v>282</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H30" s="19" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="I30" s="19" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="J30" s="19" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="K30" s="19" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="L30" s="19" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="M30" s="19" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="N30" s="19" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="O30" s="19" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="P30" s="19" t="s">
         <x:v>283</x:v>
       </x:c>
-      <x:c r="I30" s="19" t="s">
-        <x:v>284</x:v>
-      </x:c>
-      <x:c r="J30" s="19" t="s">
-        <x:v>285</x:v>
-      </x:c>
-      <x:c r="K30" s="19" t="s">
-        <x:v>286</x:v>
-      </x:c>
-      <x:c r="L30" s="19" t="s">
-        <x:v>287</x:v>
-      </x:c>
-      <x:c r="M30" s="19" t="s">
-        <x:v>288</x:v>
-      </x:c>
-      <x:c r="N30" s="19" t="s">
-        <x:v>289</x:v>
-      </x:c>
-      <x:c r="O30" s="19" t="s">
-        <x:v>290</x:v>
-      </x:c>
-      <x:c r="P30" s="19" t="s">
-        <x:v>87</x:v>
-      </x:c>
       <x:c r="Q30" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:36">
       <x:c r="B31" s="14" t="s">
-        <x:v>25</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C31" s="18" t="s">
-        <x:v>291</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="D31" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E31" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F31" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G31" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H31" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I31" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J31" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K31" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L31" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M31" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N31" s="19" t="s">
-        <x:v>292</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="O31" s="19" t="s">
-        <x:v>293</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="P31" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="Q31" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>288</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:36">
       <x:c r="B32" s="14" t="s">
-        <x:v>9</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C32" s="18" t="s">
+        <x:v>289</x:v>
+      </x:c>
+      <x:c r="D32" s="19" t="s">
+        <x:v>290</x:v>
+      </x:c>
+      <x:c r="E32" s="19" t="s">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="F32" s="19" t="s">
+        <x:v>292</x:v>
+      </x:c>
+      <x:c r="G32" s="19" t="s">
+        <x:v>293</x:v>
+      </x:c>
+      <x:c r="H32" s="19" t="s">
         <x:v>294</x:v>
-      </x:c>
-      <x:c r="D32" s="19" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="E32" s="19" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="F32" s="19" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="G32" s="19" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="H32" s="19" t="s">
-        <x:v>87</x:v>
       </x:c>
       <x:c r="I32" s="19" t="s">
         <x:v>295</x:v>
@@ -5252,160 +5590,160 @@
         <x:v>301</x:v>
       </x:c>
       <x:c r="P32" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="Q32" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>303</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:36">
       <x:c r="B33" s="14" t="s">
-        <x:v>34</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C33" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="D33" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E33" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F33" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G33" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H33" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I33" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J33" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K33" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L33" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M33" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="N33" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="O33" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="P33" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="Q33" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>308</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:36">
       <x:c r="B34" s="14" t="s">
-        <x:v>35</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C34" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="D34" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E34" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F34" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G34" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="H34" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="I34" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="J34" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="K34" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="L34" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="M34" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="N34" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="O34" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="P34" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="Q34" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>320</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:36">
       <x:c r="B35" s="14" t="s">
-        <x:v>36</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C35" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="D35" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E35" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F35" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G35" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H35" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I35" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="J35" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="K35" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="L35" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="M35" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="N35" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="O35" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="P35" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="Q35" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>206</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:36">
@@ -5413,49 +5751,49 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="C36" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D36" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E36" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F36" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G36" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H36" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I36" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J36" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K36" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L36" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M36" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N36" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O36" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P36" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q36" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:36">
@@ -5463,49 +5801,49 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="C37" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D37" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E37" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F37" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G37" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H37" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I37" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J37" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K37" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L37" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M37" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N37" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O37" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P37" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q37" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:36">
@@ -5513,49 +5851,49 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="C38" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D38" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E38" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F38" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G38" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H38" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I38" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J38" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K38" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L38" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M38" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N38" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O38" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P38" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q38" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:36">
@@ -5563,49 +5901,49 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="C39" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D39" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E39" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F39" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G39" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H39" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I39" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J39" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K39" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L39" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M39" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N39" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O39" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P39" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q39" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:36">
@@ -5613,49 +5951,49 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="C40" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D40" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E40" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F40" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G40" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H40" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I40" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J40" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K40" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L40" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M40" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N40" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O40" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P40" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q40" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:36">
@@ -5663,49 +6001,49 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="C41" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D41" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E41" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F41" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G41" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H41" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I41" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J41" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K41" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L41" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M41" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N41" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O41" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P41" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q41" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:36">
@@ -5713,49 +6051,49 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="C42" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D42" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E42" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F42" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G42" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H42" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I42" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J42" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K42" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L42" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M42" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N42" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O42" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P42" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q42" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:36">
@@ -5763,49 +6101,49 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="C43" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D43" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E43" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F43" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G43" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H43" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I43" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J43" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K43" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L43" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M43" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N43" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O43" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P43" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q43" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:36">
@@ -5813,49 +6151,49 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="C44" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D44" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E44" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F44" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G44" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H44" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I44" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J44" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K44" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L44" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M44" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N44" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O44" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P44" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q44" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:36">
@@ -5863,49 +6201,49 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="C45" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D45" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E45" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F45" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G45" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H45" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I45" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J45" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K45" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L45" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M45" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N45" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O45" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P45" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q45" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:36">
@@ -5913,49 +6251,49 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="C46" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D46" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E46" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F46" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G46" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H46" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I46" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J46" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K46" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L46" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M46" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N46" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O46" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P46" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q46" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:36">
@@ -5963,49 +6301,49 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="C47" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D47" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E47" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F47" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G47" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H47" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I47" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J47" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K47" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L47" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M47" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N47" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O47" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P47" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q47" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:36">
@@ -6013,49 +6351,49 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="C48" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D48" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E48" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F48" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G48" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H48" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I48" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J48" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K48" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L48" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M48" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N48" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O48" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P48" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q48" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:36">
@@ -6063,49 +6401,49 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="C49" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D49" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E49" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F49" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G49" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H49" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I49" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J49" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K49" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L49" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M49" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N49" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O49" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P49" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q49" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:36">
@@ -6113,49 +6451,49 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="C50" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D50" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E50" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F50" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G50" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H50" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I50" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J50" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K50" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L50" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M50" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N50" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O50" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P50" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q50" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:36">
@@ -6163,49 +6501,49 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="C51" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D51" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E51" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F51" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G51" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H51" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I51" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J51" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K51" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L51" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M51" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N51" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O51" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P51" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q51" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:36">
@@ -6213,49 +6551,49 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="C52" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D52" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E52" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F52" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G52" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H52" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I52" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J52" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K52" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L52" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M52" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N52" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O52" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P52" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q52" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:36">
@@ -6263,49 +6601,49 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="C53" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D53" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E53" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F53" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G53" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H53" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I53" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J53" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K53" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L53" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M53" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N53" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O53" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P53" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q53" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:36">
@@ -6313,49 +6651,49 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="C54" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D54" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E54" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F54" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G54" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H54" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I54" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J54" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K54" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L54" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M54" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N54" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O54" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P54" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q54" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:36">
@@ -6363,49 +6701,49 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="C55" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D55" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E55" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F55" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G55" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H55" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I55" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J55" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K55" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L55" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M55" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N55" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O55" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P55" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q55" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:36">
@@ -6413,49 +6751,49 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="C56" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D56" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E56" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F56" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G56" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H56" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I56" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J56" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K56" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L56" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M56" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N56" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O56" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P56" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q56" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:36">
@@ -6463,49 +6801,49 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="C57" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D57" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E57" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F57" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G57" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H57" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I57" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J57" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K57" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L57" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M57" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N57" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O57" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P57" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q57" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:36">
@@ -6513,49 +6851,49 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="C58" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D58" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E58" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F58" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G58" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H58" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I58" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J58" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K58" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L58" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M58" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N58" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O58" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P58" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q58" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:36">
@@ -6563,49 +6901,49 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="C59" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D59" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E59" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F59" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G59" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H59" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I59" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J59" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K59" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L59" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M59" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N59" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O59" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P59" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q59" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:36">
@@ -6613,49 +6951,49 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="C60" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D60" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E60" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F60" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G60" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H60" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I60" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J60" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K60" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L60" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M60" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N60" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O60" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P60" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q60" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:36">
@@ -6663,49 +7001,49 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="C61" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D61" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E61" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F61" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G61" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H61" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I61" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J61" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K61" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L61" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M61" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N61" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O61" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P61" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q61" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:36">
@@ -6713,49 +7051,49 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="C62" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D62" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E62" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F62" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G62" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H62" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I62" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J62" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K62" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L62" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M62" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N62" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O62" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P62" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q62" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:36">
@@ -6763,49 +7101,49 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="C63" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D63" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E63" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F63" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G63" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H63" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I63" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J63" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K63" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L63" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M63" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N63" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O63" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P63" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q63" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:36">
@@ -6813,49 +7151,49 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="C64" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D64" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E64" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F64" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G64" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H64" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I64" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J64" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K64" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L64" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M64" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N64" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O64" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P64" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q64" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:36">
@@ -6863,49 +7201,49 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="C65" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D65" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E65" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F65" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G65" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H65" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I65" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J65" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K65" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L65" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M65" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N65" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O65" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P65" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q65" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:36">
@@ -6913,49 +7251,49 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="C66" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D66" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E66" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F66" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G66" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H66" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I66" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J66" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K66" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L66" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M66" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N66" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O66" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P66" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q66" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:36">
@@ -6963,49 +7301,49 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="C67" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D67" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E67" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F67" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G67" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H67" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I67" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J67" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K67" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L67" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M67" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N67" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O67" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P67" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q67" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:36">
@@ -7013,49 +7351,49 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="C68" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D68" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E68" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F68" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G68" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H68" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I68" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J68" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K68" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L68" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M68" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N68" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O68" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P68" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q68" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:36">
@@ -7063,49 +7401,49 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="C69" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D69" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E69" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F69" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G69" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H69" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I69" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J69" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K69" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L69" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M69" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N69" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O69" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P69" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q69" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:36">
@@ -7113,49 +7451,49 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="C70" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D70" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E70" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F70" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G70" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H70" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I70" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J70" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K70" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L70" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M70" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N70" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O70" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P70" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q70" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:36">
@@ -7163,49 +7501,49 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="C71" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D71" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E71" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F71" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G71" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H71" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I71" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J71" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K71" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L71" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M71" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N71" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O71" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P71" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q71" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:36">
@@ -7213,49 +7551,49 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="C72" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D72" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E72" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F72" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G72" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H72" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I72" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J72" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K72" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L72" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M72" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N72" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O72" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P72" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q72" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:36">
@@ -7263,49 +7601,49 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="C73" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D73" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E73" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F73" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G73" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H73" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I73" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J73" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K73" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L73" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M73" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N73" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O73" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P73" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q73" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:36">
@@ -7313,49 +7651,49 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="C74" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D74" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E74" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F74" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G74" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H74" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I74" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J74" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K74" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L74" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M74" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N74" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O74" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P74" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q74" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:36">
@@ -7363,49 +7701,49 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="C75" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D75" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E75" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F75" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G75" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H75" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I75" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J75" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K75" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L75" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M75" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N75" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O75" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P75" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q75" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:36">
@@ -7413,49 +7751,99 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="C76" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D76" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E76" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F76" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G76" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H76" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I76" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J76" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K76" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L76" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M76" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N76" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O76" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P76" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="Q76" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:36">
+      <x:c r="B77" s="14" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C77" s="18" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D77" s="19" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E77" s="19" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="F77" s="19" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="G77" s="19" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="H77" s="19" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="I77" s="19" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="J77" s="19" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="K77" s="19" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="L77" s="19" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="M77" s="19" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="N77" s="19" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="O77" s="19" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="P77" s="19" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="Q77" s="19" t="s">
+        <x:v>88</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
